--- a/SQL/TextImportExport.xlsx
+++ b/SQL/TextImportExport.xlsx
@@ -11,10 +11,10 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="Delimited001" sheetId="29" r:id="rId1"/>
-    <sheet name="Delimited002" sheetId="30" r:id="rId2"/>
-    <sheet name="Fixed001" sheetId="31" r:id="rId3"/>
-    <sheet name="Dbf001" sheetId="32" r:id="rId4"/>
+    <sheet name="Delimited001" sheetId="1" r:id="rId1"/>
+    <sheet name="Delimited002" sheetId="2" r:id="rId2"/>
+    <sheet name="Fixed001" sheetId="3" r:id="rId3"/>
+    <sheet name="Dbf001" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr/>
 </workbook>
@@ -44,124 +44,124 @@
     <t>East Asia &amp; Pacific</t>
   </si>
   <si>
-    <t>6.01163437242166</t>
-  </si>
-  <si>
-    <t>28.3086642991885</t>
-  </si>
-  <si>
-    <t>11.086360386647202</t>
+    <t>5.61076762116707</t>
+  </si>
+  <si>
+    <t>27.8011105999282</t>
+  </si>
+  <si>
+    <t>10.783441436854755</t>
   </si>
   <si>
     <t>8.787819682664</t>
   </si>
   <si>
-    <t>5.742252797739543</t>
+    <t>5.622746068789554</t>
   </si>
   <si>
     <t>Europe &amp; Central Asia</t>
   </si>
   <si>
-    <t>2.55160675071439</t>
-  </si>
-  <si>
-    <t>20.2298722533002</t>
-  </si>
-  <si>
-    <t>10.280395853431903</t>
-  </si>
-  <si>
-    <t>10.472317957122</t>
-  </si>
-  <si>
-    <t>3.958088766266156</t>
+    <t>2.55160110474637</t>
+  </si>
+  <si>
+    <t>20.2298829953543</t>
+  </si>
+  <si>
+    <t>10.437319976882115</t>
+  </si>
+  <si>
+    <t>10.47233207438275</t>
+  </si>
+  <si>
+    <t>3.8526298348193393</t>
   </si>
   <si>
     <t>Latin America &amp; Caribbean</t>
   </si>
   <si>
-    <t>2.20866938911177</t>
-  </si>
-  <si>
-    <t>19.6016159633835</t>
-  </si>
-  <si>
-    <t>11.290815492272845</t>
-  </si>
-  <si>
-    <t>11.206157212607799</t>
-  </si>
-  <si>
-    <t>4.848117483982072</t>
+    <t>2.00613213814739</t>
+  </si>
+  <si>
+    <t>21.2038647179359</t>
+  </si>
+  <si>
+    <t>11.299539634951133</t>
+  </si>
+  <si>
+    <t>11.203891502778301</t>
+  </si>
+  <si>
+    <t>4.943831316668795</t>
   </si>
   <si>
     <t>Middle East &amp; North Africa</t>
   </si>
   <si>
-    <t>4.37236467687981</t>
-  </si>
-  <si>
-    <t>18.7432095057685</t>
-  </si>
-  <si>
-    <t>9.837333768404878</t>
-  </si>
-  <si>
-    <t>9.94989097379356</t>
-  </si>
-  <si>
-    <t>3.569488112087138</t>
+    <t>4.8225034441193</t>
+  </si>
+  <si>
+    <t>18.7409428569756</t>
+  </si>
+  <si>
+    <t>9.609592774538529</t>
+  </si>
+  <si>
+    <t>9.79498687379971</t>
+  </si>
+  <si>
+    <t>3.6024922761623217</t>
   </si>
   <si>
     <t>North America</t>
   </si>
   <si>
-    <t>5.77948832206119</t>
+    <t>5.79318650333884</t>
   </si>
   <si>
     <t>7.90625948931535</t>
   </si>
   <si>
-    <t>6.84287390568827</t>
-  </si>
-  <si>
-    <t>1.5038543143974459</t>
+    <t>6.849722996327095</t>
+  </si>
+  <si>
+    <t>1.4941682375260967</t>
   </si>
   <si>
     <t>South Asia</t>
   </si>
   <si>
-    <t>5.80203395044823</t>
-  </si>
-  <si>
-    <t>21.823605664386</t>
-  </si>
-  <si>
-    <t>12.134331893660116</t>
-  </si>
-  <si>
-    <t>9.98178379352128</t>
-  </si>
-  <si>
-    <t>6.182858399799579</t>
+    <t>5.96948461463209</t>
+  </si>
+  <si>
+    <t>21.8363053072406</t>
+  </si>
+  <si>
+    <t>11.985800514910006</t>
+  </si>
+  <si>
+    <t>9.20963505251298</t>
+  </si>
+  <si>
+    <t>6.372269013312877</t>
   </si>
   <si>
     <t>Sub-Saharan Africa</t>
   </si>
   <si>
-    <t>2.13021999076516</t>
-  </si>
-  <si>
-    <t>28.9504048350663</t>
-  </si>
-  <si>
-    <t>9.048473575458052</t>
-  </si>
-  <si>
-    <t>7.191801430738575</t>
-  </si>
-  <si>
-    <t>6.106888105038423</t>
+    <t>2.18261268903057</t>
+  </si>
+  <si>
+    <t>22.5424273452835</t>
+  </si>
+  <si>
+    <t>8.839452258661977</t>
+  </si>
+  <si>
+    <t>7.396292522267094</t>
+  </si>
+  <si>
+    <t>5.428118973347561</t>
   </si>
   <si>
     <t>ID</t>
@@ -1379,12 +1379,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="25.003906" customWidth="1"/>
-    <col min="2" max="2" width="17.28125" customWidth="1"/>
-    <col min="3" max="3" width="17.28125" customWidth="1"/>
-    <col min="4" max="4" width="19.28125" customWidth="1"/>
-    <col min="5" max="5" width="19.28125" customWidth="1"/>
-    <col min="6" max="6" width="19.28125" customWidth="1"/>
+    <col min="1" max="1" width="24.285156" customWidth="1"/>
+    <col min="2" max="2" width="16.570312" customWidth="1"/>
+    <col min="3" max="3" width="16.570312" customWidth="1"/>
+    <col min="4" max="4" width="18.570312" customWidth="1"/>
+    <col min="5" max="5" width="18.570312" customWidth="1"/>
+    <col min="6" max="6" width="18.570312" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1563,11 +1563,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="25.003906" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" customWidth="1"/>
-    <col min="3" max="3" width="13.003906" customWidth="1"/>
-    <col min="4" max="4" width="16.003906" customWidth="1"/>
-    <col min="5" max="5" width="12.28125" customWidth="1"/>
+    <col min="1" max="1" width="24.285156" customWidth="1"/>
+    <col min="2" max="2" width="12" customWidth="1"/>
+    <col min="3" max="3" width="12.285156" customWidth="1"/>
+    <col min="4" max="4" width="15.285156" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1592,13 +1592,13 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>6.0116343724216597</v>
+        <v>5.6107676211670698</v>
       </c>
       <c r="C2">
-        <v>28.3086642991885</v>
+        <v>27.801110599928201</v>
       </c>
       <c r="D2">
-        <v>11.086360386647202</v>
+        <v>10.783441436854755</v>
       </c>
       <c r="E2">
         <v>8.7878196826640007</v>
@@ -1609,16 +1609,16 @@
         <v>12</v>
       </c>
       <c r="B3">
-        <v>2.5516067507143898</v>
+        <v>2.55160110474637</v>
       </c>
       <c r="C3">
-        <v>20.229872253300201</v>
+        <v>20.229882995354298</v>
       </c>
       <c r="D3">
-        <v>10.280395853431903</v>
+        <v>10.437319976882115</v>
       </c>
       <c r="E3">
-        <v>10.472317957122</v>
+        <v>10.47233207438275</v>
       </c>
     </row>
     <row r="4">
@@ -1626,16 +1626,16 @@
         <v>18</v>
       </c>
       <c r="B4">
-        <v>2.2086693891117699</v>
+        <v>2.00613213814739</v>
       </c>
       <c r="C4">
-        <v>19.601615963383502</v>
+        <v>21.2038647179359</v>
       </c>
       <c r="D4">
-        <v>11.290815492272845</v>
+        <v>11.299539634951133</v>
       </c>
       <c r="E4">
-        <v>11.206157212607799</v>
+        <v>11.203891502778301</v>
       </c>
     </row>
     <row r="5">
@@ -1643,16 +1643,16 @@
         <v>24</v>
       </c>
       <c r="B5">
-        <v>4.3723646768798101</v>
+        <v>4.8225034441192998</v>
       </c>
       <c r="C5">
-        <v>18.743209505768501</v>
+        <v>18.7409428569756</v>
       </c>
       <c r="D5">
-        <v>9.8373337684048785</v>
+        <v>9.6095927745385286</v>
       </c>
       <c r="E5">
-        <v>9.9498909737935595</v>
+        <v>9.7949868737997097</v>
       </c>
     </row>
     <row r="6">
@@ -1660,16 +1660,16 @@
         <v>30</v>
       </c>
       <c r="B6">
-        <v>5.7794883220611899</v>
+        <v>5.7931865033388403</v>
       </c>
       <c r="C6">
         <v>7.9062594893153504</v>
       </c>
       <c r="D6">
-        <v>6.8428739056882701</v>
+        <v>6.8497229963270954</v>
       </c>
       <c r="E6">
-        <v>6.8428739056882701</v>
+        <v>6.8497229963270954</v>
       </c>
     </row>
     <row r="7">
@@ -1677,16 +1677,16 @@
         <v>35</v>
       </c>
       <c r="B7">
-        <v>5.8020339504482301</v>
+        <v>5.9694846146320897</v>
       </c>
       <c r="C7">
-        <v>21.823605664386001</v>
+        <v>21.8363053072406</v>
       </c>
       <c r="D7">
-        <v>12.134331893660116</v>
+        <v>11.985800514910006</v>
       </c>
       <c r="E7">
-        <v>9.9817837935212808</v>
+        <v>9.2096350525129793</v>
       </c>
     </row>
     <row r="8">
@@ -1694,16 +1694,16 @@
         <v>41</v>
       </c>
       <c r="B8">
-        <v>2.13021999076516</v>
+        <v>2.1826126890305702</v>
       </c>
       <c r="C8">
-        <v>28.950404835066301</v>
+        <v>22.5424273452835</v>
       </c>
       <c r="D8">
-        <v>9.0484735754580523</v>
+        <v>8.8394522586619768</v>
       </c>
       <c r="E8">
-        <v>7.1918014307385754</v>
+        <v>7.3962925222670943</v>
       </c>
     </row>
   </sheetData>
@@ -1723,12 +1723,12 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.140625"/>
-    <col min="2" max="2" width="15.7109375" customWidth="1"/>
-    <col min="3" max="3" width="22.710938" customWidth="1"/>
-    <col min="4" max="4" width="25.003906" customWidth="1"/>
-    <col min="5" max="5" width="20.851562" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="3" max="3" width="22" customWidth="1"/>
+    <col min="4" max="4" width="24.285156" customWidth="1"/>
+    <col min="5" max="5" width="20.140625" customWidth="1"/>
     <col min="6" max="6" width="9.140625"/>
-    <col min="7" max="7" width="10.28125" customWidth="1"/>
+    <col min="7" max="7" width="9.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1756,7 +1756,7 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="B2" t="s">
         <v>53</v>
@@ -1774,12 +1774,12 @@
         <v>2014</v>
       </c>
       <c r="G2">
-        <v>13.926828</v>
+        <v>13.926852999999999</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>3535</v>
+        <v>3593</v>
       </c>
       <c r="B3" t="s">
         <v>56</v>
@@ -1797,12 +1797,12 @@
         <v>2014</v>
       </c>
       <c r="G3">
-        <v>10.791637</v>
+        <v>9.7949868000000002</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B4" t="s">
         <v>58</v>
@@ -1820,12 +1820,12 @@
         <v>2014</v>
       </c>
       <c r="G4">
-        <v>13.219099999999999</v>
+        <v>15.018648000000001</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>475</v>
+        <v>482</v>
       </c>
       <c r="B5" t="s">
         <v>61</v>
@@ -1843,12 +1843,12 @@
         <v>2014</v>
       </c>
       <c r="G5">
-        <v>9.8566903000000003</v>
+        <v>9.6968078000000002</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>535</v>
+        <v>543</v>
       </c>
       <c r="B6" t="s">
         <v>63</v>
@@ -1866,12 +1866,12 @@
         <v>2014</v>
       </c>
       <c r="G6">
-        <v>8.2734441000000007</v>
+        <v>9.8797048000000007</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>715</v>
+        <v>726</v>
       </c>
       <c r="B7" t="s">
         <v>65</v>
@@ -1894,7 +1894,7 @@
     </row>
     <row r="8">
       <c r="A8">
-        <v>775</v>
+        <v>787</v>
       </c>
       <c r="B8" t="s">
         <v>68</v>
@@ -1917,7 +1917,7 @@
     </row>
     <row r="9">
       <c r="A9">
-        <v>835</v>
+        <v>848</v>
       </c>
       <c r="B9" t="s">
         <v>70</v>
@@ -1935,12 +1935,12 @@
         <v>2014</v>
       </c>
       <c r="G9">
-        <v>11.856175</v>
+        <v>11.613162000000001</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>1255</v>
+        <v>1275</v>
       </c>
       <c r="B10" t="s">
         <v>72</v>
@@ -1958,12 +1958,12 @@
         <v>2014</v>
       </c>
       <c r="G10">
-        <v>4.3723646</v>
+        <v>4.8225034000000004</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>1135</v>
+        <v>1153</v>
       </c>
       <c r="B11" t="s">
         <v>74</v>
@@ -1981,12 +1981,12 @@
         <v>2014</v>
       </c>
       <c r="G11">
-        <v>14.137126</v>
+        <v>14.691595</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>1435</v>
+        <v>1458</v>
       </c>
       <c r="B12" t="s">
         <v>76</v>
@@ -2004,12 +2004,12 @@
         <v>2014</v>
       </c>
       <c r="G12">
-        <v>6.4708047000000004</v>
+        <v>6.4728618999999998</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>955</v>
+        <v>970</v>
       </c>
       <c r="B13" t="s">
         <v>78</v>
@@ -2032,7 +2032,7 @@
     </row>
     <row r="14">
       <c r="A14">
-        <v>1015</v>
+        <v>1031</v>
       </c>
       <c r="B14" t="s">
         <v>80</v>
@@ -2050,12 +2050,12 @@
         <v>2014</v>
       </c>
       <c r="G14">
-        <v>5.073245</v>
+        <v>6.7981682000000001</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>1615</v>
+        <v>1641</v>
       </c>
       <c r="B15" t="s">
         <v>83</v>
@@ -2073,12 +2073,12 @@
         <v>2014</v>
       </c>
       <c r="G15">
-        <v>8.4727546999999994</v>
+        <v>9.0685064000000004</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>1375</v>
+        <v>1397</v>
       </c>
       <c r="B16" t="s">
         <v>85</v>
@@ -2096,12 +2096,12 @@
         <v>2014</v>
       </c>
       <c r="G16">
-        <v>5.0883707999999999</v>
+        <v>5.0883716999999997</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>1915</v>
+        <v>1946</v>
       </c>
       <c r="B17" t="s">
         <v>87</v>
@@ -2119,12 +2119,12 @@
         <v>2014</v>
       </c>
       <c r="G17">
-        <v>13.141349999999999</v>
+        <v>12.532966999999999</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>1675</v>
+        <v>1702</v>
       </c>
       <c r="B18" t="s">
         <v>89</v>
@@ -2142,12 +2142,12 @@
         <v>2014</v>
       </c>
       <c r="G18">
-        <v>10.938107</v>
+        <v>10.510285</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>1795</v>
+        <v>1824</v>
       </c>
       <c r="B19" t="s">
         <v>91</v>
@@ -2165,12 +2165,12 @@
         <v>2014</v>
       </c>
       <c r="G19">
-        <v>9.3141014999999996</v>
+        <v>9.3822417999999992</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>1195</v>
+        <v>1214</v>
       </c>
       <c r="B20" t="s">
         <v>93</v>
@@ -2188,12 +2188,12 @@
         <v>2014</v>
       </c>
       <c r="G20">
-        <v>7.0769741000000002</v>
+        <v>7.0855272999999999</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>7315</v>
+        <v>7436</v>
       </c>
       <c r="B21" t="s">
         <v>95</v>
@@ -2211,12 +2211,12 @@
         <v>2014</v>
       </c>
       <c r="G21">
-        <v>7.9182183000000004</v>
+        <v>7.6416605999999998</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>2455</v>
+        <v>2495</v>
       </c>
       <c r="B22" t="s">
         <v>97</v>
@@ -2234,12 +2234,12 @@
         <v>2014</v>
       </c>
       <c r="G22">
-        <v>9.8798302000000007</v>
+        <v>9.5028067000000007</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>2035</v>
+        <v>2068</v>
       </c>
       <c r="B23" t="s">
         <v>99</v>
@@ -2257,12 +2257,12 @@
         <v>2014</v>
       </c>
       <c r="G23">
-        <v>5.7794882999999997</v>
+        <v>5.7931865</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>2275</v>
+        <v>2312</v>
       </c>
       <c r="B24" t="s">
         <v>101</v>
@@ -2285,7 +2285,7 @@
     </row>
     <row r="25">
       <c r="A25">
-        <v>2335</v>
+        <v>2373</v>
       </c>
       <c r="B25" t="s">
         <v>103</v>
@@ -2303,12 +2303,12 @@
         <v>2014</v>
       </c>
       <c r="G25">
-        <v>6.0116342999999999</v>
+        <v>5.6107676</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>2635</v>
+        <v>2678</v>
       </c>
       <c r="B26" t="s">
         <v>105</v>
@@ -2326,12 +2326,12 @@
         <v>2014</v>
       </c>
       <c r="G26">
-        <v>18.808340000000001</v>
+        <v>18.378636</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>2515</v>
+        <v>2556</v>
       </c>
       <c r="B27" t="s">
         <v>107</v>
@@ -2349,12 +2349,12 @@
         <v>2014</v>
       </c>
       <c r="G27">
-        <v>2.1302199000000002</v>
+        <v>2.1826126000000001</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>2575</v>
+        <v>2617</v>
       </c>
       <c r="B28" t="s">
         <v>109</v>
@@ -2372,12 +2372,12 @@
         <v>2014</v>
       </c>
       <c r="G28">
-        <v>10.846396</v>
+        <v>8.4723448000000001</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>2815</v>
+        <v>2861</v>
       </c>
       <c r="B29" t="s">
         <v>111</v>
@@ -2395,12 +2395,12 @@
         <v>2014</v>
       </c>
       <c r="G29">
-        <v>14.728425</v>
+        <v>15.271547999999999</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>5875</v>
+        <v>5972</v>
       </c>
       <c r="B30" t="s">
         <v>113</v>
@@ -2418,12 +2418,12 @@
         <v>2014</v>
       </c>
       <c r="G30">
-        <v>11.624803</v>
+        <v>11.624828000000001</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>2995</v>
+        <v>3044</v>
       </c>
       <c r="B31" t="s">
         <v>115</v>
@@ -2441,12 +2441,12 @@
         <v>2014</v>
       </c>
       <c r="G31">
-        <v>2.2086692999999999</v>
+        <v>2.0061320999999999</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>3115</v>
+        <v>3166</v>
       </c>
       <c r="B32" t="s">
         <v>117</v>
@@ -2464,12 +2464,12 @@
         <v>2014</v>
       </c>
       <c r="G32">
-        <v>12.981737000000001</v>
+        <v>12.981743</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>3175</v>
+        <v>3227</v>
       </c>
       <c r="B33" t="s">
         <v>119</v>
@@ -2492,7 +2492,7 @@
     </row>
     <row r="34">
       <c r="A34">
-        <v>2395</v>
+        <v>2434</v>
       </c>
       <c r="B34" t="s">
         <v>121</v>
@@ -2510,12 +2510,12 @@
         <v>2014</v>
       </c>
       <c r="G34">
-        <v>5.2414123999999997</v>
+        <v>5.1049202999999999</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>3415</v>
+        <v>3471</v>
       </c>
       <c r="B35" t="s">
         <v>123</v>
@@ -2538,7 +2538,7 @@
     </row>
     <row r="36">
       <c r="A36">
-        <v>3475</v>
+        <v>3532</v>
       </c>
       <c r="B36" t="s">
         <v>125</v>
@@ -2556,12 +2556,12 @@
         <v>2014</v>
       </c>
       <c r="G36">
-        <v>18.120778999999999</v>
+        <v>17.923781000000002</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>3895</v>
+        <v>3959</v>
       </c>
       <c r="B37" t="s">
         <v>127</v>
@@ -2579,12 +2579,12 @@
         <v>2014</v>
       </c>
       <c r="G37">
-        <v>12.918588</v>
+        <v>13.176190999999999</v>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>3955</v>
+        <v>4020</v>
       </c>
       <c r="B38" t="s">
         <v>129</v>
@@ -2602,12 +2602,12 @@
         <v>2014</v>
       </c>
       <c r="G38">
-        <v>12.811121</v>
+        <v>13.167350000000001</v>
       </c>
     </row>
     <row r="39">
       <c r="A39">
-        <v>12595</v>
+        <v>12804</v>
       </c>
       <c r="B39" t="s">
         <v>131</v>
@@ -2625,12 +2625,12 @@
         <v>2014</v>
       </c>
       <c r="G39">
-        <v>11.203564999999999</v>
+        <v>11.199033</v>
       </c>
     </row>
     <row r="40">
       <c r="A40">
-        <v>4195</v>
+        <v>4264</v>
       </c>
       <c r="B40" t="s">
         <v>133</v>
@@ -2653,7 +2653,7 @@
     </row>
     <row r="41">
       <c r="A41">
-        <v>4255</v>
+        <v>4325</v>
       </c>
       <c r="B41" t="s">
         <v>135</v>
@@ -2671,12 +2671,12 @@
         <v>2014</v>
       </c>
       <c r="G41">
-        <v>3.0298531999999998</v>
+        <v>3.0695827000000002</v>
       </c>
     </row>
     <row r="42">
       <c r="A42">
-        <v>4435</v>
+        <v>4508</v>
       </c>
       <c r="B42" t="s">
         <v>137</v>
@@ -2699,7 +2699,7 @@
     </row>
     <row r="43">
       <c r="A43">
-        <v>4555</v>
+        <v>4630</v>
       </c>
       <c r="B43" t="s">
         <v>139</v>
@@ -2722,7 +2722,7 @@
     </row>
     <row r="44">
       <c r="A44">
-        <v>4735</v>
+        <v>4813</v>
       </c>
       <c r="B44" t="s">
         <v>141</v>
@@ -2740,12 +2740,12 @@
         <v>2014</v>
       </c>
       <c r="G44">
-        <v>6.5133333000000002</v>
+        <v>5.7051939000000003</v>
       </c>
     </row>
     <row r="45">
       <c r="A45">
-        <v>4855</v>
+        <v>4935</v>
       </c>
       <c r="B45" t="s">
         <v>143</v>
@@ -2763,12 +2763,12 @@
         <v>2014</v>
       </c>
       <c r="G45">
-        <v>8.2180210000000002</v>
+        <v>9.8075188000000004</v>
       </c>
     </row>
     <row r="46">
       <c r="A46">
-        <v>3235</v>
+        <v>3288</v>
       </c>
       <c r="B46" t="s">
         <v>145</v>
@@ -2791,7 +2791,7 @@
     </row>
     <row r="47">
       <c r="A47">
-        <v>4915</v>
+        <v>4996</v>
       </c>
       <c r="B47" t="s">
         <v>147</v>
@@ -2809,12 +2809,12 @@
         <v>2014</v>
       </c>
       <c r="G47">
-        <v>12.073109000000001</v>
+        <v>16.436698</v>
       </c>
     </row>
     <row r="48">
       <c r="A48">
-        <v>5275</v>
+        <v>5362</v>
       </c>
       <c r="B48" t="s">
         <v>149</v>
@@ -2837,7 +2837,7 @@
     </row>
     <row r="49">
       <c r="A49">
-        <v>5455</v>
+        <v>5545</v>
       </c>
       <c r="B49" t="s">
         <v>151</v>
@@ -2855,12 +2855,12 @@
         <v>2014</v>
       </c>
       <c r="G49">
-        <v>9.0984435000000001</v>
+        <v>8.9842198</v>
       </c>
     </row>
     <row r="50">
       <c r="A50">
-        <v>5935</v>
+        <v>6033</v>
       </c>
       <c r="B50" t="s">
         <v>153</v>
@@ -2878,12 +2878,12 @@
         <v>2014</v>
       </c>
       <c r="G50">
-        <v>4.4458105999999997</v>
+        <v>4.3663819999999998</v>
       </c>
     </row>
     <row r="51">
       <c r="A51">
-        <v>5755</v>
+        <v>5850</v>
       </c>
       <c r="B51" t="s">
         <v>155</v>
@@ -2901,12 +2901,12 @@
         <v>2014</v>
       </c>
       <c r="G51">
-        <v>7.3555435999999998</v>
+        <v>7.4466687</v>
       </c>
     </row>
     <row r="52">
       <c r="A52">
-        <v>5695</v>
+        <v>5789</v>
       </c>
       <c r="B52" t="s">
         <v>157</v>
@@ -2924,12 +2924,12 @@
         <v>2014</v>
       </c>
       <c r="G52">
-        <v>28.308664</v>
+        <v>27.801110000000001</v>
       </c>
     </row>
     <row r="53">
       <c r="A53">
-        <v>5995</v>
+        <v>6094</v>
       </c>
       <c r="B53" t="s">
         <v>159</v>
@@ -2952,7 +2952,7 @@
     </row>
     <row r="54">
       <c r="A54">
-        <v>6775</v>
+        <v>6887</v>
       </c>
       <c r="B54" t="s">
         <v>161</v>
@@ -2970,12 +2970,12 @@
         <v>2014</v>
       </c>
       <c r="G54">
-        <v>2.5516066999999998</v>
+        <v>2.5516011000000001</v>
       </c>
     </row>
     <row r="55">
       <c r="A55">
-        <v>6475</v>
+        <v>6582</v>
       </c>
       <c r="B55" t="s">
         <v>163</v>
@@ -2993,12 +2993,12 @@
         <v>2014</v>
       </c>
       <c r="G55">
-        <v>8.9271090999999991</v>
+        <v>8.2219821999999994</v>
       </c>
     </row>
     <row r="56">
       <c r="A56">
-        <v>6295</v>
+        <v>6399</v>
       </c>
       <c r="B56" t="s">
         <v>165</v>
@@ -3016,12 +3016,12 @@
         <v>2014</v>
       </c>
       <c r="G56">
-        <v>11.958339</v>
+        <v>11.627929</v>
       </c>
     </row>
     <row r="57">
       <c r="A57">
-        <v>6655</v>
+        <v>6765</v>
       </c>
       <c r="B57" t="s">
         <v>167</v>
@@ -3039,12 +3039,12 @@
         <v>2014</v>
       </c>
       <c r="G57">
-        <v>5.9148649999999998</v>
+        <v>4.9783587999999996</v>
       </c>
     </row>
     <row r="58">
       <c r="A58">
-        <v>6715</v>
+        <v>6826</v>
       </c>
       <c r="B58" t="s">
         <v>169</v>
@@ -3062,12 +3062,12 @@
         <v>2014</v>
       </c>
       <c r="G58">
-        <v>11.092696999999999</v>
+        <v>9.9221295999999999</v>
       </c>
     </row>
     <row r="59">
       <c r="A59">
-        <v>6595</v>
+        <v>6704</v>
       </c>
       <c r="B59" t="s">
         <v>171</v>
@@ -3090,7 +3090,7 @@
     </row>
     <row r="60">
       <c r="A60">
-        <v>6835</v>
+        <v>6948</v>
       </c>
       <c r="B60" t="s">
         <v>173</v>
@@ -3113,7 +3113,7 @@
     </row>
     <row r="61">
       <c r="A61">
-        <v>6895</v>
+        <v>7009</v>
       </c>
       <c r="B61" t="s">
         <v>175</v>
@@ -3136,7 +3136,7 @@
     </row>
     <row r="62">
       <c r="A62">
-        <v>6955</v>
+        <v>7070</v>
       </c>
       <c r="B62" t="s">
         <v>177</v>
@@ -3154,12 +3154,12 @@
         <v>2014</v>
       </c>
       <c r="G62">
-        <v>8.6744841000000008</v>
+        <v>8.7466405999999992</v>
       </c>
     </row>
     <row r="63">
       <c r="A63">
-        <v>7075</v>
+        <v>7192</v>
       </c>
       <c r="B63" t="s">
         <v>179</v>
@@ -3182,7 +3182,7 @@
     </row>
     <row r="64">
       <c r="A64">
-        <v>7015</v>
+        <v>7131</v>
       </c>
       <c r="B64" t="s">
         <v>181</v>
@@ -3200,12 +3200,12 @@
         <v>2014</v>
       </c>
       <c r="G64">
-        <v>9.9498908999999998</v>
+        <v>9.8699008999999993</v>
       </c>
     </row>
     <row r="65">
       <c r="A65">
-        <v>7135</v>
+        <v>7253</v>
       </c>
       <c r="B65" t="s">
         <v>183</v>
@@ -3223,12 +3223,12 @@
         <v>2014</v>
       </c>
       <c r="G65">
-        <v>5.6203829000000001</v>
+        <v>5.5757576000000002</v>
       </c>
     </row>
     <row r="66">
       <c r="A66">
-        <v>7195</v>
+        <v>7314</v>
       </c>
       <c r="B66" t="s">
         <v>185</v>
@@ -3246,12 +3246,12 @@
         <v>2014</v>
       </c>
       <c r="G66">
-        <v>5.6662384000000001</v>
+        <v>5.9712423000000001</v>
       </c>
     </row>
     <row r="67">
       <c r="A67">
-        <v>7495</v>
+        <v>7619</v>
       </c>
       <c r="B67" t="s">
         <v>187</v>
@@ -3269,12 +3269,12 @@
         <v>2014</v>
       </c>
       <c r="G67">
-        <v>6.3501288999999996</v>
+        <v>6.6785129999999997</v>
       </c>
     </row>
     <row r="68">
       <c r="A68">
-        <v>15595</v>
+        <v>15854</v>
       </c>
       <c r="B68" t="s">
         <v>189</v>
@@ -3292,12 +3292,12 @@
         <v>2014</v>
       </c>
       <c r="G68">
-        <v>7.5783946999999996</v>
+        <v>7.4165386</v>
       </c>
     </row>
     <row r="69">
       <c r="A69">
-        <v>7555</v>
+        <v>7680</v>
       </c>
       <c r="B69" t="s">
         <v>191</v>
@@ -3315,12 +3315,12 @@
         <v>2014</v>
       </c>
       <c r="G69">
-        <v>8.3564972999999991</v>
+        <v>7.6351779000000004</v>
       </c>
     </row>
     <row r="70">
       <c r="A70">
-        <v>7255</v>
+        <v>7375</v>
       </c>
       <c r="B70" t="s">
         <v>193</v>
@@ -3338,12 +3338,12 @@
         <v>2014</v>
       </c>
       <c r="G70">
-        <v>5.1614015999999996</v>
+        <v>6.5833550000000001</v>
       </c>
     </row>
     <row r="71">
       <c r="A71">
-        <v>8635</v>
+        <v>8778</v>
       </c>
       <c r="B71" t="s">
         <v>195</v>
@@ -3361,12 +3361,12 @@
         <v>2014</v>
       </c>
       <c r="G71">
-        <v>10.953579</v>
+        <v>10.953611</v>
       </c>
     </row>
     <row r="72">
       <c r="A72">
-        <v>7735</v>
+        <v>7863</v>
       </c>
       <c r="B72" t="s">
         <v>197</v>
@@ -3384,12 +3384,12 @@
         <v>2014</v>
       </c>
       <c r="G72">
-        <v>10.90504</v>
+        <v>12.557467000000001</v>
       </c>
     </row>
     <row r="73">
       <c r="A73">
-        <v>7855</v>
+        <v>7985</v>
       </c>
       <c r="B73" t="s">
         <v>199</v>
@@ -3407,12 +3407,12 @@
         <v>2014</v>
       </c>
       <c r="G73">
-        <v>6.0066208000000003</v>
+        <v>5.0924915000000004</v>
       </c>
     </row>
     <row r="74">
       <c r="A74">
-        <v>8515</v>
+        <v>8656</v>
       </c>
       <c r="B74" t="s">
         <v>201</v>
@@ -3430,12 +3430,12 @@
         <v>2014</v>
       </c>
       <c r="G74">
-        <v>11.794256000000001</v>
+        <v>11.794276999999999</v>
       </c>
     </row>
     <row r="75">
       <c r="A75">
-        <v>8575</v>
+        <v>8717</v>
       </c>
       <c r="B75" t="s">
         <v>203</v>
@@ -3458,7 +3458,7 @@
     </row>
     <row r="76">
       <c r="A76">
-        <v>10075</v>
+        <v>10242</v>
       </c>
       <c r="B76" t="s">
         <v>205</v>
@@ -3476,12 +3476,12 @@
         <v>2014</v>
       </c>
       <c r="G76">
-        <v>8.6152434000000007</v>
+        <v>8.1931311999999998</v>
       </c>
     </row>
     <row r="77">
       <c r="A77">
-        <v>9475</v>
+        <v>9632</v>
       </c>
       <c r="B77" t="s">
         <v>207</v>
@@ -3499,12 +3499,12 @@
         <v>2014</v>
       </c>
       <c r="G77">
-        <v>18.743209</v>
+        <v>18.740942</v>
       </c>
     </row>
     <row r="78">
       <c r="A78">
-        <v>9955</v>
+        <v>10120</v>
       </c>
       <c r="B78" t="s">
         <v>209</v>
@@ -3522,12 +3522,12 @@
         <v>2014</v>
       </c>
       <c r="G78">
-        <v>17.356763000000001</v>
+        <v>16.634585000000001</v>
       </c>
     </row>
     <row r="79">
       <c r="A79">
-        <v>9175</v>
+        <v>9327</v>
       </c>
       <c r="B79" t="s">
         <v>211</v>
@@ -3550,7 +3550,7 @@
     </row>
     <row r="80">
       <c r="A80">
-        <v>8935</v>
+        <v>9083</v>
       </c>
       <c r="B80" t="s">
         <v>213</v>
@@ -3568,12 +3568,12 @@
         <v>2014</v>
       </c>
       <c r="G80">
-        <v>6.5009119000000002</v>
+        <v>7.6384207000000002</v>
       </c>
     </row>
     <row r="81">
       <c r="A81">
-        <v>9715</v>
+        <v>9876</v>
       </c>
       <c r="B81" t="s">
         <v>215</v>
@@ -3591,12 +3591,12 @@
         <v>2014</v>
       </c>
       <c r="G81">
-        <v>6.5235994000000002</v>
+        <v>6.0479678999999997</v>
       </c>
     </row>
     <row r="82">
       <c r="A82">
-        <v>9655</v>
+        <v>9815</v>
       </c>
       <c r="B82" t="s">
         <v>217</v>
@@ -3614,12 +3614,12 @@
         <v>2014</v>
       </c>
       <c r="G82">
-        <v>9.9925017999999994</v>
+        <v>9.9925116000000003</v>
       </c>
     </row>
     <row r="83">
       <c r="A83">
-        <v>8815</v>
+        <v>8961</v>
       </c>
       <c r="B83" t="s">
         <v>219</v>
@@ -3637,12 +3637,12 @@
         <v>2014</v>
       </c>
       <c r="G83">
-        <v>13.726882</v>
+        <v>12.085576</v>
       </c>
     </row>
     <row r="84">
       <c r="A84">
-        <v>9835</v>
+        <v>9998</v>
       </c>
       <c r="B84" t="s">
         <v>221</v>
@@ -3660,12 +3660,12 @@
         <v>2014</v>
       </c>
       <c r="G84">
-        <v>2.9181123000000002</v>
+        <v>2.5731715999999998</v>
       </c>
     </row>
     <row r="85">
       <c r="A85">
-        <v>9535</v>
+        <v>9693</v>
       </c>
       <c r="B85" t="s">
         <v>223</v>
@@ -3683,12 +3683,12 @@
         <v>2014</v>
       </c>
       <c r="G85">
-        <v>13.554188999999999</v>
+        <v>11.495900000000001</v>
       </c>
     </row>
     <row r="86">
       <c r="A86">
-        <v>10195</v>
+        <v>10364</v>
       </c>
       <c r="B86" t="s">
         <v>225</v>
@@ -3706,12 +3706,12 @@
         <v>2014</v>
       </c>
       <c r="G86">
-        <v>13.343425</v>
+        <v>13.094276000000001</v>
       </c>
     </row>
     <row r="87">
       <c r="A87">
-        <v>10615</v>
+        <v>10791</v>
       </c>
       <c r="B87" t="s">
         <v>227</v>
@@ -3729,12 +3729,12 @@
         <v>2014</v>
       </c>
       <c r="G87">
-        <v>5.8020338999999996</v>
+        <v>5.9694846000000004</v>
       </c>
     </row>
     <row r="88">
       <c r="A88">
-        <v>10495</v>
+        <v>10669</v>
       </c>
       <c r="B88" t="s">
         <v>229</v>
@@ -3757,7 +3757,7 @@
     </row>
     <row r="89">
       <c r="A89">
-        <v>10735</v>
+        <v>10913</v>
       </c>
       <c r="B89" t="s">
         <v>231</v>
@@ -3775,12 +3775,12 @@
         <v>2014</v>
       </c>
       <c r="G89">
-        <v>8.1713836999999998</v>
+        <v>8.1749615999999996</v>
       </c>
     </row>
     <row r="90">
       <c r="A90">
-        <v>10435</v>
+        <v>10608</v>
       </c>
       <c r="B90" t="s">
         <v>233</v>
@@ -3798,12 +3798,12 @@
         <v>2014</v>
       </c>
       <c r="G90">
-        <v>8.3021080999999999</v>
+        <v>8.2880790999999991</v>
       </c>
     </row>
     <row r="91">
       <c r="A91">
-        <v>10315</v>
+        <v>10486</v>
       </c>
       <c r="B91" t="s">
         <v>235</v>
@@ -3821,12 +3821,12 @@
         <v>2014</v>
       </c>
       <c r="G91">
-        <v>6.3404851000000004</v>
+        <v>7.5807728000000001</v>
       </c>
     </row>
     <row r="92">
       <c r="A92">
-        <v>10375</v>
+        <v>10547</v>
       </c>
       <c r="B92" t="s">
         <v>237</v>
@@ -3844,12 +3844,12 @@
         <v>2014</v>
       </c>
       <c r="G92">
-        <v>7.8702693999999997</v>
+        <v>7.2118121000000004</v>
       </c>
     </row>
     <row r="93">
       <c r="A93">
-        <v>9355</v>
+        <v>9510</v>
       </c>
       <c r="B93" t="s">
         <v>239</v>
@@ -3867,12 +3867,12 @@
         <v>2014</v>
       </c>
       <c r="G93">
-        <v>10.589582999999999</v>
+        <v>10.589611</v>
       </c>
     </row>
     <row r="94">
       <c r="A94">
-        <v>10555</v>
+        <v>10730</v>
       </c>
       <c r="B94" t="s">
         <v>241</v>
@@ -3895,7 +3895,7 @@
     </row>
     <row r="95">
       <c r="A95">
-        <v>10855</v>
+        <v>11035</v>
       </c>
       <c r="B95" t="s">
         <v>243</v>
@@ -3913,12 +3913,12 @@
         <v>2014</v>
       </c>
       <c r="G95">
-        <v>6.9447944000000001</v>
+        <v>6.4250315000000002</v>
       </c>
     </row>
     <row r="96">
       <c r="A96">
-        <v>10975</v>
+        <v>11157</v>
       </c>
       <c r="B96" t="s">
         <v>245</v>
@@ -3936,12 +3936,12 @@
         <v>2014</v>
       </c>
       <c r="G96">
-        <v>9.9817836999999994</v>
+        <v>9.2096350000000005</v>
       </c>
     </row>
     <row r="97">
       <c r="A97">
-        <v>11035</v>
+        <v>11218</v>
       </c>
       <c r="B97" t="s">
         <v>247</v>
@@ -3959,12 +3959,12 @@
         <v>2014</v>
       </c>
       <c r="G97">
-        <v>19.601614999999999</v>
+        <v>21.203863999999999</v>
       </c>
     </row>
     <row r="98">
       <c r="A98">
-        <v>11635</v>
+        <v>11828</v>
       </c>
       <c r="B98" t="s">
         <v>249</v>
@@ -3982,12 +3982,12 @@
         <v>2014</v>
       </c>
       <c r="G98">
-        <v>14.668933000000001</v>
+        <v>14.590674</v>
       </c>
     </row>
     <row r="99">
       <c r="A99">
-        <v>11095</v>
+        <v>11279</v>
       </c>
       <c r="B99" t="s">
         <v>251</v>
@@ -4005,12 +4005,12 @@
         <v>2014</v>
       </c>
       <c r="G99">
-        <v>15.89594</v>
+        <v>14.565974000000001</v>
       </c>
     </row>
     <row r="100">
       <c r="A100">
-        <v>11155</v>
+        <v>11340</v>
       </c>
       <c r="B100" t="s">
         <v>253</v>
@@ -4028,12 +4028,12 @@
         <v>2014</v>
       </c>
       <c r="G100">
-        <v>14.612682</v>
+        <v>14.676221</v>
       </c>
     </row>
     <row r="101">
       <c r="A101">
-        <v>11335</v>
+        <v>11523</v>
       </c>
       <c r="B101" t="s">
         <v>255</v>
@@ -4056,7 +4056,7 @@
     </row>
     <row r="102">
       <c r="A102">
-        <v>11575</v>
+        <v>11767</v>
       </c>
       <c r="B102" t="s">
         <v>257</v>
@@ -4079,7 +4079,7 @@
     </row>
     <row r="103">
       <c r="A103">
-        <v>11935</v>
+        <v>12133</v>
       </c>
       <c r="B103" t="s">
         <v>259</v>
@@ -4097,12 +4097,12 @@
         <v>2014</v>
       </c>
       <c r="G103">
-        <v>6.8799887999999996</v>
+        <v>7.2014054999999999</v>
       </c>
     </row>
     <row r="104">
       <c r="A104">
-        <v>11995</v>
+        <v>12194</v>
       </c>
       <c r="B104" t="s">
         <v>261</v>
@@ -4120,12 +4120,12 @@
         <v>2014</v>
       </c>
       <c r="G104">
-        <v>12.957053999999999</v>
+        <v>12.957015</v>
       </c>
     </row>
     <row r="105">
       <c r="A105">
-        <v>12055</v>
+        <v>12255</v>
       </c>
       <c r="B105" t="s">
         <v>263</v>
@@ -4143,12 +4143,12 @@
         <v>2014</v>
       </c>
       <c r="G105">
-        <v>5.2920889000000004</v>
+        <v>5.2941713999999997</v>
       </c>
     </row>
     <row r="106">
       <c r="A106">
-        <v>12235</v>
+        <v>12438</v>
       </c>
       <c r="B106" t="s">
         <v>265</v>
@@ -4166,12 +4166,12 @@
         <v>2014</v>
       </c>
       <c r="G106">
-        <v>7.6097086999999997</v>
+        <v>8.0694128999999997</v>
       </c>
     </row>
     <row r="107">
       <c r="A107">
-        <v>12355</v>
+        <v>12560</v>
       </c>
       <c r="B107" t="s">
         <v>267</v>
@@ -4189,12 +4189,12 @@
         <v>2014</v>
       </c>
       <c r="G107">
-        <v>10.984662</v>
+        <v>10.138222000000001</v>
       </c>
     </row>
     <row r="108">
       <c r="A108">
-        <v>12775</v>
+        <v>12987</v>
       </c>
       <c r="B108" t="s">
         <v>269</v>
@@ -4212,12 +4212,12 @@
         <v>2014</v>
       </c>
       <c r="G108">
-        <v>7.8838941</v>
+        <v>7.8838986999999996</v>
       </c>
     </row>
     <row r="109">
       <c r="A109">
-        <v>12415</v>
+        <v>12621</v>
       </c>
       <c r="B109" t="s">
         <v>271</v>
@@ -4235,12 +4235,12 @@
         <v>2014</v>
       </c>
       <c r="G109">
-        <v>16.910350999999999</v>
+        <v>16.483094999999999</v>
       </c>
     </row>
     <row r="110">
       <c r="A110">
-        <v>13195</v>
+        <v>13414</v>
       </c>
       <c r="B110" t="s">
         <v>273</v>
@@ -4263,7 +4263,7 @@
     </row>
     <row r="111">
       <c r="A111">
-        <v>13255</v>
+        <v>13475</v>
       </c>
       <c r="B111" t="s">
         <v>275</v>
@@ -4286,7 +4286,7 @@
     </row>
     <row r="112">
       <c r="A112">
-        <v>15715</v>
+        <v>15976</v>
       </c>
       <c r="B112" t="s">
         <v>277</v>
@@ -4304,12 +4304,12 @@
         <v>2014</v>
       </c>
       <c r="G112">
-        <v>4.8565692</v>
+        <v>4.645187</v>
       </c>
     </row>
     <row r="113">
       <c r="A113">
-        <v>12895</v>
+        <v>13109</v>
       </c>
       <c r="B113" t="s">
         <v>279</v>
@@ -4327,12 +4327,12 @@
         <v>2014</v>
       </c>
       <c r="G113">
-        <v>28.950403999999999</v>
+        <v>22.542427</v>
       </c>
     </row>
     <row r="114">
       <c r="A114">
-        <v>4135</v>
+        <v>4203</v>
       </c>
       <c r="B114" t="s">
         <v>281</v>
@@ -4355,7 +4355,7 @@
     </row>
     <row r="115">
       <c r="A115">
-        <v>8215</v>
+        <v>8351</v>
       </c>
       <c r="B115" t="s">
         <v>283</v>
@@ -4373,12 +4373,12 @@
         <v>2014</v>
       </c>
       <c r="G115">
-        <v>21.823605000000001</v>
+        <v>21.836304999999999</v>
       </c>
     </row>
     <row r="116">
       <c r="A116">
-        <v>12295</v>
+        <v>12499</v>
       </c>
       <c r="B116" t="s">
         <v>285</v>
@@ -4396,12 +4396,12 @@
         <v>2014</v>
       </c>
       <c r="G116">
-        <v>11.143859000000001</v>
+        <v>11.997863000000001</v>
       </c>
     </row>
     <row r="117">
       <c r="A117">
-        <v>13135</v>
+        <v>13353</v>
       </c>
       <c r="B117" t="s">
         <v>287</v>
@@ -4419,12 +4419,12 @@
         <v>2014</v>
       </c>
       <c r="G117">
-        <v>12.841974</v>
+        <v>13.838623999999999</v>
       </c>
     </row>
     <row r="118">
       <c r="A118">
-        <v>13315</v>
+        <v>13536</v>
       </c>
       <c r="B118" t="s">
         <v>289</v>
@@ -4442,12 +4442,12 @@
         <v>2014</v>
       </c>
       <c r="G118">
-        <v>9.4727177999999999</v>
+        <v>9.5007102999999997</v>
       </c>
     </row>
     <row r="119">
       <c r="A119">
-        <v>2155</v>
+        <v>2190</v>
       </c>
       <c r="B119" t="s">
         <v>291</v>
@@ -4465,12 +4465,12 @@
         <v>2014</v>
       </c>
       <c r="G119">
-        <v>20.229872</v>
+        <v>20.229882</v>
       </c>
     </row>
     <row r="120">
       <c r="A120">
-        <v>13975</v>
+        <v>14207</v>
       </c>
       <c r="B120" t="s">
         <v>293</v>
@@ -4488,12 +4488,12 @@
         <v>2014</v>
       </c>
       <c r="G120">
-        <v>8.0226275000000005</v>
+        <v>9.7192153000000001</v>
       </c>
     </row>
     <row r="121">
       <c r="A121">
-        <v>14695</v>
+        <v>14939</v>
       </c>
       <c r="B121" t="s">
         <v>295</v>
@@ -4511,12 +4511,12 @@
         <v>2014</v>
       </c>
       <c r="G121">
-        <v>5.2352884</v>
+        <v>4.3822156000000003</v>
       </c>
     </row>
     <row r="122">
       <c r="A122">
-        <v>13915</v>
+        <v>14146</v>
       </c>
       <c r="B122" t="s">
         <v>297</v>
@@ -4534,12 +4534,12 @@
         <v>2014</v>
       </c>
       <c r="G122">
-        <v>7.9707074000000002</v>
+        <v>7.8619592000000003</v>
       </c>
     </row>
     <row r="123">
       <c r="A123">
-        <v>13855</v>
+        <v>14085</v>
       </c>
       <c r="B123" t="s">
         <v>299</v>
@@ -4557,12 +4557,12 @@
         <v>2014</v>
       </c>
       <c r="G123">
-        <v>3.2524877000000001</v>
+        <v>2.8722297999999999</v>
       </c>
     </row>
     <row r="124">
       <c r="A124">
-        <v>14455</v>
+        <v>14695</v>
       </c>
       <c r="B124" t="s">
         <v>301</v>
@@ -4580,12 +4580,12 @@
         <v>2014</v>
       </c>
       <c r="G124">
-        <v>2.2931064999999999</v>
+        <v>2.0676317000000002</v>
       </c>
     </row>
     <row r="125">
       <c r="A125">
-        <v>14515</v>
+        <v>14756</v>
       </c>
       <c r="B125" t="s">
         <v>303</v>
@@ -4603,12 +4603,12 @@
         <v>2014</v>
       </c>
       <c r="G125">
-        <v>12.057295999999999</v>
+        <v>10.990166</v>
       </c>
     </row>
     <row r="126">
       <c r="A126">
-        <v>14575</v>
+        <v>14817</v>
       </c>
       <c r="B126" t="s">
         <v>305</v>
@@ -4631,7 +4631,7 @@
     </row>
     <row r="127">
       <c r="A127">
-        <v>14035</v>
+        <v>14268</v>
       </c>
       <c r="B127" t="s">
         <v>307</v>
@@ -4649,12 +4649,12 @@
         <v>2014</v>
       </c>
       <c r="G127">
-        <v>3.0948861000000001</v>
+        <v>2.7569707000000001</v>
       </c>
     </row>
     <row r="128">
       <c r="A128">
-        <v>14815</v>
+        <v>15061</v>
       </c>
       <c r="B128" t="s">
         <v>309</v>
@@ -4672,12 +4672,12 @@
         <v>2014</v>
       </c>
       <c r="G128">
-        <v>3.5442821000000002</v>
+        <v>4.3714363000000001</v>
       </c>
     </row>
     <row r="129">
       <c r="A129">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="B129" t="s">
         <v>311</v>
@@ -4695,12 +4695,12 @@
         <v>2014</v>
       </c>
       <c r="G129">
-        <v>8.6873068999999994</v>
+        <v>9.6254250999999993</v>
       </c>
     </row>
     <row r="130">
       <c r="A130">
-        <v>4795</v>
+        <v>4874</v>
       </c>
       <c r="B130" t="s">
         <v>313</v>
@@ -4723,7 +4723,7 @@
     </row>
     <row r="131">
       <c r="A131">
-        <v>14995</v>
+        <v>15244</v>
       </c>
       <c r="B131" t="s">
         <v>315</v>
@@ -4746,7 +4746,7 @@
     </row>
     <row r="132">
       <c r="A132">
-        <v>14935</v>
+        <v>15183</v>
       </c>
       <c r="B132" t="s">
         <v>317</v>
@@ -4764,7 +4764,7 @@
         <v>2014</v>
       </c>
       <c r="G132">
-        <v>15.201245999999999</v>
+        <v>14.497374000000001</v>
       </c>
     </row>
   </sheetData>
@@ -4783,12 +4783,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="25.003906" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" customWidth="1"/>
-    <col min="3" max="3" width="13.003906" customWidth="1"/>
-    <col min="4" max="4" width="14.28125" customWidth="1"/>
-    <col min="5" max="5" width="14.8515625" customWidth="1"/>
-    <col min="6" max="6" width="10.421875" customWidth="1"/>
+    <col min="1" max="1" width="24.285156" customWidth="1"/>
+    <col min="2" max="2" width="12" customWidth="1"/>
+    <col min="3" max="3" width="12.285156" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4816,19 +4816,19 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>6.0115999999999996</v>
+        <v>5.6108000000000002</v>
       </c>
       <c r="C2">
-        <v>28.308700000000002</v>
+        <v>27.801100000000002</v>
       </c>
       <c r="D2">
-        <v>11.086399999999999</v>
+        <v>10.7834</v>
       </c>
       <c r="E2">
         <v>8.7878000000000007</v>
       </c>
       <c r="F2">
-        <v>5.7423000000000002</v>
+        <v>5.6227</v>
       </c>
     </row>
     <row r="3">
@@ -4842,13 +4842,13 @@
         <v>20.229900000000001</v>
       </c>
       <c r="D3">
-        <v>10.2804</v>
+        <v>10.4373</v>
       </c>
       <c r="E3">
         <v>10.472300000000001</v>
       </c>
       <c r="F3">
-        <v>3.9581</v>
+        <v>3.8525999999999998</v>
       </c>
     </row>
     <row r="4">
@@ -4856,19 +4856,19 @@
         <v>18</v>
       </c>
       <c r="B4">
-        <v>2.2086999999999999</v>
+        <v>2.0061</v>
       </c>
       <c r="C4">
-        <v>19.601600000000001</v>
+        <v>21.203900000000001</v>
       </c>
       <c r="D4">
-        <v>11.290800000000001</v>
+        <v>11.2995</v>
       </c>
       <c r="E4">
-        <v>11.206200000000001</v>
+        <v>11.203900000000001</v>
       </c>
       <c r="F4">
-        <v>4.8480999999999996</v>
+        <v>4.9438000000000004</v>
       </c>
     </row>
     <row r="5">
@@ -4876,19 +4876,19 @@
         <v>24</v>
       </c>
       <c r="B5">
-        <v>4.3723999999999998</v>
+        <v>4.8224999999999998</v>
       </c>
       <c r="C5">
-        <v>18.743200000000002</v>
+        <v>18.7409</v>
       </c>
       <c r="D5">
-        <v>9.8373000000000008</v>
+        <v>9.6096000000000004</v>
       </c>
       <c r="E5">
-        <v>9.9498999999999995</v>
+        <v>9.7949999999999999</v>
       </c>
       <c r="F5">
-        <v>3.5695000000000001</v>
+        <v>3.6025</v>
       </c>
     </row>
     <row r="6">
@@ -4896,19 +4896,19 @@
         <v>30</v>
       </c>
       <c r="B6">
-        <v>5.7794999999999996</v>
+        <v>5.7931999999999997</v>
       </c>
       <c r="C6">
         <v>7.9062999999999999</v>
       </c>
       <c r="D6">
-        <v>6.8429000000000002</v>
+        <v>6.8497000000000003</v>
       </c>
       <c r="E6">
-        <v>6.8429000000000002</v>
+        <v>6.8497000000000003</v>
       </c>
       <c r="F6">
-        <v>1.5039</v>
+        <v>1.4942</v>
       </c>
     </row>
     <row r="7">
@@ -4916,19 +4916,19 @@
         <v>35</v>
       </c>
       <c r="B7">
-        <v>5.8019999999999996</v>
+        <v>5.9695</v>
       </c>
       <c r="C7">
-        <v>21.823599999999999</v>
+        <v>21.836300000000001</v>
       </c>
       <c r="D7">
-        <v>12.1343</v>
+        <v>11.985799999999999</v>
       </c>
       <c r="E7">
-        <v>9.9817999999999998</v>
+        <v>9.2096</v>
       </c>
       <c r="F7">
-        <v>6.1829000000000001</v>
+        <v>6.3723000000000001</v>
       </c>
     </row>
     <row r="8">
@@ -4936,19 +4936,19 @@
         <v>41</v>
       </c>
       <c r="B8">
-        <v>2.1301999999999999</v>
+        <v>2.1825999999999999</v>
       </c>
       <c r="C8">
-        <v>28.950399999999998</v>
+        <v>22.542400000000001</v>
       </c>
       <c r="D8">
-        <v>9.0485000000000007</v>
+        <v>8.8394999999999992</v>
       </c>
       <c r="E8">
-        <v>7.1917999999999997</v>
+        <v>7.3963000000000001</v>
       </c>
       <c r="F8">
-        <v>6.1069000000000004</v>
+        <v>5.4280999999999997</v>
       </c>
     </row>
   </sheetData>

--- a/SQL/TextImportExport.xlsx
+++ b/SQL/TextImportExport.xlsx
@@ -44,37 +44,37 @@
     <t>East Asia &amp; Pacific</t>
   </si>
   <si>
-    <t>5.61076762116707</t>
+    <t>5.61076766078122</t>
   </si>
   <si>
     <t>27.8011105999282</t>
   </si>
   <si>
-    <t>10.783441436854755</t>
+    <t>10.783441439496293</t>
   </si>
   <si>
     <t>8.787819682664</t>
   </si>
   <si>
-    <t>5.622746068789554</t>
+    <t>5.622746066186912</t>
   </si>
   <si>
     <t>Europe &amp; Central Asia</t>
   </si>
   <si>
-    <t>2.55160110474637</t>
+    <t>2.55160110425415</t>
   </si>
   <si>
     <t>20.2298829953543</t>
   </si>
   <si>
-    <t>10.437319976882115</t>
-  </si>
-  <si>
-    <t>10.47233207438275</t>
-  </si>
-  <si>
-    <t>3.8526298348193393</t>
+    <t>10.440121840703357</t>
+  </si>
+  <si>
+    <t>10.4447034264426</t>
+  </si>
+  <si>
+    <t>3.854574579422321</t>
   </si>
   <si>
     <t>Latin America &amp; Caribbean</t>
@@ -86,13 +86,13 @@
     <t>21.2038647179359</t>
   </si>
   <si>
-    <t>11.299539634951133</t>
-  </si>
-  <si>
-    <t>11.203891502778301</t>
-  </si>
-  <si>
-    <t>4.943831316668795</t>
+    <t>11.435900055214683</t>
+  </si>
+  <si>
+    <t>11.2038939811568</t>
+  </si>
+  <si>
+    <t>4.78251479814374</t>
   </si>
   <si>
     <t>Middle East &amp; North Africa</t>
@@ -101,16 +101,16 @@
     <t>4.8225034441193</t>
   </si>
   <si>
-    <t>18.7409428569756</t>
-  </si>
-  <si>
-    <t>9.609592774538529</t>
-  </si>
-  <si>
-    <t>9.79498687379971</t>
-  </si>
-  <si>
-    <t>3.6024922761623217</t>
+    <t>19.2781511768525</t>
+  </si>
+  <si>
+    <t>9.647665170088715</t>
+  </si>
+  <si>
+    <t>9.79504253327181</t>
+  </si>
+  <si>
+    <t>3.6913144879107462</t>
   </si>
   <si>
     <t>North America</t>
@@ -119,13 +119,13 @@
     <t>5.79318650333884</t>
   </si>
   <si>
-    <t>7.90625948931535</t>
-  </si>
-  <si>
-    <t>6.849722996327095</t>
-  </si>
-  <si>
-    <t>1.4941682375260967</t>
+    <t>7.90870385069669</t>
+  </si>
+  <si>
+    <t>6.850945177017765</t>
+  </si>
+  <si>
+    <t>1.4958966620345124</t>
   </si>
   <si>
     <t>South Asia</t>
@@ -155,13 +155,13 @@
     <t>22.5424273452835</t>
   </si>
   <si>
-    <t>8.839452258661977</t>
-  </si>
-  <si>
-    <t>7.396292522267094</t>
-  </si>
-  <si>
-    <t>5.428118973347561</t>
+    <t>8.938368695349968</t>
+  </si>
+  <si>
+    <t>7.413949018621195</t>
+  </si>
+  <si>
+    <t>5.439986715237662</t>
   </si>
   <si>
     <t>ID</t>
@@ -1383,7 +1383,7 @@
     <col min="2" max="2" width="16.570312" customWidth="1"/>
     <col min="3" max="3" width="16.570312" customWidth="1"/>
     <col min="4" max="4" width="18.570312" customWidth="1"/>
-    <col min="5" max="5" width="18.570312" customWidth="1"/>
+    <col min="5" max="5" width="17.570312" customWidth="1"/>
     <col min="6" max="6" width="18.570312" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1592,13 +1592,13 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>5.6107676211670698</v>
+        <v>5.61076766078122</v>
       </c>
       <c r="C2">
         <v>27.801110599928201</v>
       </c>
       <c r="D2">
-        <v>10.783441436854755</v>
+        <v>10.783441439496293</v>
       </c>
       <c r="E2">
         <v>8.7878196826640007</v>
@@ -1609,16 +1609,16 @@
         <v>12</v>
       </c>
       <c r="B3">
-        <v>2.55160110474637</v>
+        <v>2.55160110425415</v>
       </c>
       <c r="C3">
         <v>20.229882995354298</v>
       </c>
       <c r="D3">
-        <v>10.437319976882115</v>
+        <v>10.440121840703357</v>
       </c>
       <c r="E3">
-        <v>10.47233207438275</v>
+        <v>10.444703426442601</v>
       </c>
     </row>
     <row r="4">
@@ -1632,10 +1632,10 @@
         <v>21.2038647179359</v>
       </c>
       <c r="D4">
-        <v>11.299539634951133</v>
+        <v>11.435900055214683</v>
       </c>
       <c r="E4">
-        <v>11.203891502778301</v>
+        <v>11.203893981156799</v>
       </c>
     </row>
     <row r="5">
@@ -1646,13 +1646,13 @@
         <v>4.8225034441192998</v>
       </c>
       <c r="C5">
-        <v>18.7409428569756</v>
+        <v>19.2781511768525</v>
       </c>
       <c r="D5">
-        <v>9.6095927745385286</v>
+        <v>9.6476651700887146</v>
       </c>
       <c r="E5">
-        <v>9.7949868737997097</v>
+        <v>9.7950425332718094</v>
       </c>
     </row>
     <row r="6">
@@ -1663,13 +1663,13 @@
         <v>5.7931865033388403</v>
       </c>
       <c r="C6">
-        <v>7.9062594893153504</v>
+        <v>7.90870385069669</v>
       </c>
       <c r="D6">
-        <v>6.8497229963270954</v>
+        <v>6.8509451770177652</v>
       </c>
       <c r="E6">
-        <v>6.8497229963270954</v>
+        <v>6.8509451770177652</v>
       </c>
     </row>
     <row r="7">
@@ -1700,10 +1700,10 @@
         <v>22.5424273452835</v>
       </c>
       <c r="D8">
-        <v>8.8394522586619768</v>
+        <v>8.9383686953499684</v>
       </c>
       <c r="E8">
-        <v>7.3962925222670943</v>
+        <v>7.4139490186211949</v>
       </c>
     </row>
   </sheetData>
@@ -1774,7 +1774,7 @@
         <v>2014</v>
       </c>
       <c r="G2">
-        <v>13.926852999999999</v>
+        <v>13.926916</v>
       </c>
     </row>
     <row r="3">
@@ -1797,7 +1797,7 @@
         <v>2014</v>
       </c>
       <c r="G3">
-        <v>9.7949868000000002</v>
+        <v>9.7950424999999992</v>
       </c>
     </row>
     <row r="4">
@@ -2096,7 +2096,7 @@
         <v>2014</v>
       </c>
       <c r="G16">
-        <v>5.0883716999999997</v>
+        <v>5.0883982999999997</v>
       </c>
     </row>
     <row r="17">
@@ -2119,7 +2119,7 @@
         <v>2014</v>
       </c>
       <c r="G17">
-        <v>12.532966999999999</v>
+        <v>12.532991000000001</v>
       </c>
     </row>
     <row r="18">
@@ -2188,7 +2188,7 @@
         <v>2014</v>
       </c>
       <c r="G20">
-        <v>7.0855272999999999</v>
+        <v>7.0879032999999998</v>
       </c>
     </row>
     <row r="21">
@@ -2372,7 +2372,7 @@
         <v>2014</v>
       </c>
       <c r="G28">
-        <v>8.4723448000000001</v>
+        <v>10.613182</v>
       </c>
     </row>
     <row r="29">
@@ -2418,7 +2418,7 @@
         <v>2014</v>
       </c>
       <c r="G30">
-        <v>11.624828000000001</v>
+        <v>11.624127</v>
       </c>
     </row>
     <row r="31">
@@ -2464,7 +2464,7 @@
         <v>2014</v>
       </c>
       <c r="G32">
-        <v>12.981743</v>
+        <v>12.997935999999999</v>
       </c>
     </row>
     <row r="33">
@@ -2487,7 +2487,7 @@
         <v>2014</v>
       </c>
       <c r="G33">
-        <v>8.24071</v>
+        <v>8.3017962000000001</v>
       </c>
     </row>
     <row r="34">
@@ -2625,7 +2625,7 @@
         <v>2014</v>
       </c>
       <c r="G39">
-        <v>11.199033</v>
+        <v>11.199038</v>
       </c>
     </row>
     <row r="40">
@@ -2648,7 +2648,7 @@
         <v>2014</v>
       </c>
       <c r="G40">
-        <v>6.3440317000000004</v>
+        <v>6.3440317999999998</v>
       </c>
     </row>
     <row r="41">
@@ -2671,7 +2671,7 @@
         <v>2014</v>
       </c>
       <c r="G41">
-        <v>3.0695827000000002</v>
+        <v>3.0695817999999999</v>
       </c>
     </row>
     <row r="42">
@@ -2832,7 +2832,7 @@
         <v>2014</v>
       </c>
       <c r="G48">
-        <v>12.636415</v>
+        <v>12.636414</v>
       </c>
     </row>
     <row r="49">
@@ -2878,7 +2878,7 @@
         <v>2014</v>
       </c>
       <c r="G50">
-        <v>4.3663819999999998</v>
+        <v>7.3594141999999998</v>
       </c>
     </row>
     <row r="51">
@@ -2947,7 +2947,7 @@
         <v>2014</v>
       </c>
       <c r="G53">
-        <v>11.062875999999999</v>
+        <v>11.079108</v>
       </c>
     </row>
     <row r="54">
@@ -3200,7 +3200,7 @@
         <v>2014</v>
       </c>
       <c r="G64">
-        <v>9.8699008999999993</v>
+        <v>10.010747</v>
       </c>
     </row>
     <row r="65">
@@ -3361,7 +3361,7 @@
         <v>2014</v>
       </c>
       <c r="G71">
-        <v>10.953611</v>
+        <v>10.935012</v>
       </c>
     </row>
     <row r="72">
@@ -3430,7 +3430,7 @@
         <v>2014</v>
       </c>
       <c r="G74">
-        <v>11.794276999999999</v>
+        <v>11.806126000000001</v>
       </c>
     </row>
     <row r="75">
@@ -3499,7 +3499,7 @@
         <v>2014</v>
       </c>
       <c r="G77">
-        <v>18.740942</v>
+        <v>19.278151000000001</v>
       </c>
     </row>
     <row r="78">
@@ -3545,7 +3545,7 @@
         <v>2014</v>
       </c>
       <c r="G79">
-        <v>11.554062999999999</v>
+        <v>11.560981999999999</v>
       </c>
     </row>
     <row r="80">
@@ -3614,7 +3614,7 @@
         <v>2014</v>
       </c>
       <c r="G82">
-        <v>9.9925116000000003</v>
+        <v>9.9925523999999992</v>
       </c>
     </row>
     <row r="83">
@@ -3660,7 +3660,7 @@
         <v>2014</v>
       </c>
       <c r="G84">
-        <v>2.5731715999999998</v>
+        <v>2.5731704</v>
       </c>
     </row>
     <row r="85">
@@ -3798,7 +3798,7 @@
         <v>2014</v>
       </c>
       <c r="G90">
-        <v>8.2880790999999991</v>
+        <v>8.2880521999999992</v>
       </c>
     </row>
     <row r="91">
@@ -3821,7 +3821,7 @@
         <v>2014</v>
       </c>
       <c r="G91">
-        <v>7.5807728000000001</v>
+        <v>7.6160857999999996</v>
       </c>
     </row>
     <row r="92">
@@ -3867,7 +3867,7 @@
         <v>2014</v>
       </c>
       <c r="G93">
-        <v>10.589611</v>
+        <v>10.589643000000001</v>
       </c>
     </row>
     <row r="94">
@@ -3913,7 +3913,7 @@
         <v>2014</v>
       </c>
       <c r="G95">
-        <v>6.4250315000000002</v>
+        <v>6.3941564</v>
       </c>
     </row>
     <row r="96">
@@ -4051,7 +4051,7 @@
         <v>2014</v>
       </c>
       <c r="G101">
-        <v>10.355052000000001</v>
+        <v>10.299761999999999</v>
       </c>
     </row>
     <row r="102">
@@ -4097,7 +4097,7 @@
         <v>2014</v>
       </c>
       <c r="G103">
-        <v>7.2014054999999999</v>
+        <v>7.2014011</v>
       </c>
     </row>
     <row r="104">
@@ -4120,7 +4120,7 @@
         <v>2014</v>
       </c>
       <c r="G104">
-        <v>12.957015</v>
+        <v>12.978656000000001</v>
       </c>
     </row>
     <row r="105">
@@ -4212,7 +4212,7 @@
         <v>2014</v>
       </c>
       <c r="G108">
-        <v>7.8838986999999996</v>
+        <v>7.8839294999999998</v>
       </c>
     </row>
     <row r="109">
@@ -4258,7 +4258,7 @@
         <v>2014</v>
       </c>
       <c r="G110">
-        <v>9.8503916</v>
+        <v>9.8521926999999998</v>
       </c>
     </row>
     <row r="111">
@@ -4396,7 +4396,7 @@
         <v>2014</v>
       </c>
       <c r="G116">
-        <v>11.997863000000001</v>
+        <v>11.997851000000001</v>
       </c>
     </row>
     <row r="117">
@@ -4626,7 +4626,7 @@
         <v>2014</v>
       </c>
       <c r="G126">
-        <v>15.229634000000001</v>
+        <v>15.307344000000001</v>
       </c>
     </row>
     <row r="127">
@@ -4741,7 +4741,7 @@
         <v>2014</v>
       </c>
       <c r="G131">
-        <v>7.9062593999999997</v>
+        <v>7.9087037999999996</v>
       </c>
     </row>
     <row r="132">
@@ -4842,13 +4842,13 @@
         <v>20.229900000000001</v>
       </c>
       <c r="D3">
-        <v>10.4373</v>
+        <v>10.440099999999999</v>
       </c>
       <c r="E3">
-        <v>10.472300000000001</v>
+        <v>10.444699999999999</v>
       </c>
       <c r="F3">
-        <v>3.8525999999999998</v>
+        <v>3.8546</v>
       </c>
     </row>
     <row r="4">
@@ -4862,13 +4862,13 @@
         <v>21.203900000000001</v>
       </c>
       <c r="D4">
-        <v>11.2995</v>
+        <v>11.4359</v>
       </c>
       <c r="E4">
         <v>11.203900000000001</v>
       </c>
       <c r="F4">
-        <v>4.9438000000000004</v>
+        <v>4.7824999999999998</v>
       </c>
     </row>
     <row r="5">
@@ -4879,16 +4879,16 @@
         <v>4.8224999999999998</v>
       </c>
       <c r="C5">
-        <v>18.7409</v>
+        <v>19.278199999999998</v>
       </c>
       <c r="D5">
-        <v>9.6096000000000004</v>
+        <v>9.6477000000000004</v>
       </c>
       <c r="E5">
         <v>9.7949999999999999</v>
       </c>
       <c r="F5">
-        <v>3.6025</v>
+        <v>3.6913</v>
       </c>
     </row>
     <row r="6">
@@ -4899,16 +4899,16 @@
         <v>5.7931999999999997</v>
       </c>
       <c r="C6">
-        <v>7.9062999999999999</v>
+        <v>7.9086999999999996</v>
       </c>
       <c r="D6">
-        <v>6.8497000000000003</v>
+        <v>6.8509000000000002</v>
       </c>
       <c r="E6">
-        <v>6.8497000000000003</v>
+        <v>6.8509000000000002</v>
       </c>
       <c r="F6">
-        <v>1.4942</v>
+        <v>1.4959</v>
       </c>
     </row>
     <row r="7">
@@ -4942,13 +4942,13 @@
         <v>22.542400000000001</v>
       </c>
       <c r="D8">
-        <v>8.8394999999999992</v>
+        <v>8.9383999999999997</v>
       </c>
       <c r="E8">
-        <v>7.3963000000000001</v>
+        <v>7.4138999999999999</v>
       </c>
       <c r="F8">
-        <v>5.4280999999999997</v>
+        <v>5.4400000000000004</v>
       </c>
     </row>
   </sheetData>

--- a/SQL/TextImportExport.xlsx
+++ b/SQL/TextImportExport.xlsx
@@ -44,37 +44,37 @@
     <t>East Asia &amp; Pacific</t>
   </si>
   <si>
-    <t>5.61076766078122</t>
+    <t>5.61076766078296</t>
   </si>
   <si>
     <t>27.8011105999282</t>
   </si>
   <si>
-    <t>10.783441439496293</t>
-  </si>
-  <si>
-    <t>8.787819682664</t>
-  </si>
-  <si>
-    <t>5.622746066186912</t>
+    <t>10.749168045112128</t>
+  </si>
+  <si>
+    <t>8.78794612373967</t>
+  </si>
+  <si>
+    <t>5.61968424878595</t>
   </si>
   <si>
     <t>Europe &amp; Central Asia</t>
   </si>
   <si>
-    <t>2.55160110425415</t>
-  </si>
-  <si>
-    <t>20.2298829953543</t>
-  </si>
-  <si>
-    <t>10.440121840703357</t>
-  </si>
-  <si>
-    <t>10.4447034264426</t>
-  </si>
-  <si>
-    <t>3.854574579422321</t>
+    <t>2.56735094808518</t>
+  </si>
+  <si>
+    <t>20.9491292484964</t>
+  </si>
+  <si>
+    <t>10.46400525819331</t>
+  </si>
+  <si>
+    <t>10.44470342644255</t>
+  </si>
+  <si>
+    <t>3.9178919327903285</t>
   </si>
   <si>
     <t>Latin America &amp; Caribbean</t>
@@ -83,16 +83,16 @@
     <t>2.00613213814739</t>
   </si>
   <si>
-    <t>21.2038647179359</t>
-  </si>
-  <si>
-    <t>11.435900055214683</t>
-  </si>
-  <si>
-    <t>11.2038939811568</t>
-  </si>
-  <si>
-    <t>4.78251479814374</t>
+    <t>21.2038495823144</t>
+  </si>
+  <si>
+    <t>11.465236234741646</t>
+  </si>
+  <si>
+    <t>11.20389150277865</t>
+  </si>
+  <si>
+    <t>4.794181923047788</t>
   </si>
   <si>
     <t>Middle East &amp; North Africa</t>
@@ -101,16 +101,16 @@
     <t>4.8225034441193</t>
   </si>
   <si>
-    <t>19.2781511768525</t>
-  </si>
-  <si>
-    <t>9.647665170088715</t>
-  </si>
-  <si>
-    <t>9.79504253327181</t>
-  </si>
-  <si>
-    <t>3.6913144879107462</t>
+    <t>19.2781510730785</t>
+  </si>
+  <si>
+    <t>9.67122654256078</t>
+  </si>
+  <si>
+    <t>9.65857871354278</t>
+  </si>
+  <si>
+    <t>3.710112068140074</t>
   </si>
   <si>
     <t>North America</t>
@@ -131,19 +131,19 @@
     <t>South Asia</t>
   </si>
   <si>
-    <t>5.96948461463209</t>
+    <t>6.78379071090891</t>
   </si>
   <si>
     <t>21.8363053072406</t>
   </si>
   <si>
-    <t>11.985800514910006</t>
+    <t>12.148661734165369</t>
   </si>
   <si>
     <t>9.20963505251298</t>
   </si>
   <si>
-    <t>6.372269013312877</t>
+    <t>6.187800086004109</t>
   </si>
   <si>
     <t>Sub-Saharan Africa</t>
@@ -155,13 +155,13 @@
     <t>22.5424273452835</t>
   </si>
   <si>
-    <t>8.938368695349968</t>
+    <t>9.059133045634088</t>
   </si>
   <si>
     <t>7.413949018621195</t>
   </si>
   <si>
-    <t>5.439986715237662</t>
+    <t>5.357620004606367</t>
   </si>
   <si>
     <t>ID</t>
@@ -1564,9 +1564,9 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="24.285156" customWidth="1"/>
-    <col min="2" max="2" width="12" customWidth="1"/>
-    <col min="3" max="3" width="12.285156" customWidth="1"/>
-    <col min="4" max="4" width="15.285156" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" customWidth="1"/>
+    <col min="3" max="3" width="12" customWidth="1"/>
+    <col min="4" max="4" width="15" customWidth="1"/>
     <col min="5" max="5" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1592,16 +1592,16 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>5.61076766078122</v>
+        <v>5.61076766078296</v>
       </c>
       <c r="C2">
         <v>27.801110599928201</v>
       </c>
       <c r="D2">
-        <v>10.783441439496293</v>
+        <v>10.749168045112128</v>
       </c>
       <c r="E2">
-        <v>8.7878196826640007</v>
+        <v>8.7879461237396708</v>
       </c>
     </row>
     <row r="3">
@@ -1609,16 +1609,16 @@
         <v>12</v>
       </c>
       <c r="B3">
-        <v>2.55160110425415</v>
+        <v>2.5673509480851799</v>
       </c>
       <c r="C3">
-        <v>20.229882995354298</v>
+        <v>20.949129248496401</v>
       </c>
       <c r="D3">
-        <v>10.440121840703357</v>
+        <v>10.464005258193311</v>
       </c>
       <c r="E3">
-        <v>10.444703426442601</v>
+        <v>10.444703426442549</v>
       </c>
     </row>
     <row r="4">
@@ -1629,13 +1629,13 @@
         <v>2.00613213814739</v>
       </c>
       <c r="C4">
-        <v>21.2038647179359</v>
+        <v>21.203849582314401</v>
       </c>
       <c r="D4">
-        <v>11.435900055214683</v>
+        <v>11.465236234741646</v>
       </c>
       <c r="E4">
-        <v>11.203893981156799</v>
+        <v>11.203891502778649</v>
       </c>
     </row>
     <row r="5">
@@ -1646,13 +1646,13 @@
         <v>4.8225034441192998</v>
       </c>
       <c r="C5">
-        <v>19.2781511768525</v>
+        <v>19.278151073078501</v>
       </c>
       <c r="D5">
-        <v>9.6476651700887146</v>
+        <v>9.6712265425607793</v>
       </c>
       <c r="E5">
-        <v>9.7950425332718094</v>
+        <v>9.6585787135427807</v>
       </c>
     </row>
     <row r="6">
@@ -1677,13 +1677,13 @@
         <v>35</v>
       </c>
       <c r="B7">
-        <v>5.9694846146320897</v>
+        <v>6.7837907109089102</v>
       </c>
       <c r="C7">
         <v>21.8363053072406</v>
       </c>
       <c r="D7">
-        <v>11.985800514910006</v>
+        <v>12.148661734165369</v>
       </c>
       <c r="E7">
         <v>9.2096350525129793</v>
@@ -1700,7 +1700,7 @@
         <v>22.5424273452835</v>
       </c>
       <c r="D8">
-        <v>8.9383686953499684</v>
+        <v>9.0591330456340877</v>
       </c>
       <c r="E8">
         <v>7.4139490186211949</v>
@@ -1723,7 +1723,7 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.140625"/>
-    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" customWidth="1"/>
     <col min="3" max="3" width="22" customWidth="1"/>
     <col min="4" max="4" width="24.285156" customWidth="1"/>
     <col min="5" max="5" width="20.140625" customWidth="1"/>
@@ -1756,7 +1756,7 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>238</v>
+        <v>360</v>
       </c>
       <c r="B2" t="s">
         <v>53</v>
@@ -1774,12 +1774,12 @@
         <v>2014</v>
       </c>
       <c r="G2">
-        <v>13.926916</v>
+        <v>13.926919</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>3593</v>
+        <v>3715</v>
       </c>
       <c r="B3" t="s">
         <v>56</v>
@@ -1802,7 +1802,7 @@
     </row>
     <row r="4">
       <c r="A4">
-        <v>177</v>
+        <v>299</v>
       </c>
       <c r="B4" t="s">
         <v>58</v>
@@ -1825,7 +1825,7 @@
     </row>
     <row r="5">
       <c r="A5">
-        <v>482</v>
+        <v>604</v>
       </c>
       <c r="B5" t="s">
         <v>61</v>
@@ -1848,7 +1848,7 @@
     </row>
     <row r="6">
       <c r="A6">
-        <v>543</v>
+        <v>665</v>
       </c>
       <c r="B6" t="s">
         <v>63</v>
@@ -1871,7 +1871,7 @@
     </row>
     <row r="7">
       <c r="A7">
-        <v>726</v>
+        <v>848</v>
       </c>
       <c r="B7" t="s">
         <v>65</v>
@@ -1889,12 +1889,12 @@
         <v>2014</v>
       </c>
       <c r="G7">
-        <v>8.7878196000000006</v>
+        <v>8.7879460999999992</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>787</v>
+        <v>909</v>
       </c>
       <c r="B8" t="s">
         <v>68</v>
@@ -1917,7 +1917,7 @@
     </row>
     <row r="9">
       <c r="A9">
-        <v>848</v>
+        <v>970</v>
       </c>
       <c r="B9" t="s">
         <v>70</v>
@@ -1940,7 +1940,7 @@
     </row>
     <row r="10">
       <c r="A10">
-        <v>1275</v>
+        <v>1397</v>
       </c>
       <c r="B10" t="s">
         <v>72</v>
@@ -1963,7 +1963,7 @@
     </row>
     <row r="11">
       <c r="A11">
-        <v>1153</v>
+        <v>1275</v>
       </c>
       <c r="B11" t="s">
         <v>74</v>
@@ -1986,7 +1986,7 @@
     </row>
     <row r="12">
       <c r="A12">
-        <v>1458</v>
+        <v>1580</v>
       </c>
       <c r="B12" t="s">
         <v>76</v>
@@ -2009,7 +2009,7 @@
     </row>
     <row r="13">
       <c r="A13">
-        <v>970</v>
+        <v>1092</v>
       </c>
       <c r="B13" t="s">
         <v>78</v>
@@ -2032,7 +2032,7 @@
     </row>
     <row r="14">
       <c r="A14">
-        <v>1031</v>
+        <v>1153</v>
       </c>
       <c r="B14" t="s">
         <v>80</v>
@@ -2055,7 +2055,7 @@
     </row>
     <row r="15">
       <c r="A15">
-        <v>1641</v>
+        <v>1763</v>
       </c>
       <c r="B15" t="s">
         <v>83</v>
@@ -2078,7 +2078,7 @@
     </row>
     <row r="16">
       <c r="A16">
-        <v>1397</v>
+        <v>1519</v>
       </c>
       <c r="B16" t="s">
         <v>85</v>
@@ -2101,7 +2101,7 @@
     </row>
     <row r="17">
       <c r="A17">
-        <v>1946</v>
+        <v>2068</v>
       </c>
       <c r="B17" t="s">
         <v>87</v>
@@ -2119,12 +2119,12 @@
         <v>2014</v>
       </c>
       <c r="G17">
-        <v>12.532991000000001</v>
+        <v>12.073248</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>1702</v>
+        <v>1824</v>
       </c>
       <c r="B18" t="s">
         <v>89</v>
@@ -2147,7 +2147,7 @@
     </row>
     <row r="19">
       <c r="A19">
-        <v>1824</v>
+        <v>1946</v>
       </c>
       <c r="B19" t="s">
         <v>91</v>
@@ -2170,7 +2170,7 @@
     </row>
     <row r="20">
       <c r="A20">
-        <v>1214</v>
+        <v>1336</v>
       </c>
       <c r="B20" t="s">
         <v>93</v>
@@ -2188,12 +2188,12 @@
         <v>2014</v>
       </c>
       <c r="G20">
-        <v>7.0879032999999998</v>
+        <v>7.1103268000000002</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>7436</v>
+        <v>7558</v>
       </c>
       <c r="B21" t="s">
         <v>95</v>
@@ -2216,7 +2216,7 @@
     </row>
     <row r="22">
       <c r="A22">
-        <v>2495</v>
+        <v>2617</v>
       </c>
       <c r="B22" t="s">
         <v>97</v>
@@ -2234,12 +2234,12 @@
         <v>2014</v>
       </c>
       <c r="G22">
-        <v>9.5028067000000007</v>
+        <v>9.8822326999999994</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>2068</v>
+        <v>2190</v>
       </c>
       <c r="B23" t="s">
         <v>99</v>
@@ -2262,7 +2262,7 @@
     </row>
     <row r="24">
       <c r="A24">
-        <v>2312</v>
+        <v>2434</v>
       </c>
       <c r="B24" t="s">
         <v>101</v>
@@ -2285,7 +2285,7 @@
     </row>
     <row r="25">
       <c r="A25">
-        <v>2373</v>
+        <v>2495</v>
       </c>
       <c r="B25" t="s">
         <v>103</v>
@@ -2308,7 +2308,7 @@
     </row>
     <row r="26">
       <c r="A26">
-        <v>2678</v>
+        <v>2800</v>
       </c>
       <c r="B26" t="s">
         <v>105</v>
@@ -2331,7 +2331,7 @@
     </row>
     <row r="27">
       <c r="A27">
-        <v>2556</v>
+        <v>2678</v>
       </c>
       <c r="B27" t="s">
         <v>107</v>
@@ -2354,7 +2354,7 @@
     </row>
     <row r="28">
       <c r="A28">
-        <v>2617</v>
+        <v>2739</v>
       </c>
       <c r="B28" t="s">
         <v>109</v>
@@ -2372,12 +2372,12 @@
         <v>2014</v>
       </c>
       <c r="G28">
-        <v>10.613182</v>
+        <v>10.690397000000001</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>2861</v>
+        <v>2983</v>
       </c>
       <c r="B29" t="s">
         <v>111</v>
@@ -2395,12 +2395,12 @@
         <v>2014</v>
       </c>
       <c r="G29">
-        <v>15.271547999999999</v>
+        <v>15.705933</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>5972</v>
+        <v>6094</v>
       </c>
       <c r="B30" t="s">
         <v>113</v>
@@ -2418,12 +2418,12 @@
         <v>2014</v>
       </c>
       <c r="G30">
-        <v>11.624127</v>
+        <v>11.76342</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>3044</v>
+        <v>3166</v>
       </c>
       <c r="B31" t="s">
         <v>115</v>
@@ -2446,7 +2446,7 @@
     </row>
     <row r="32">
       <c r="A32">
-        <v>3166</v>
+        <v>3288</v>
       </c>
       <c r="B32" t="s">
         <v>117</v>
@@ -2469,7 +2469,7 @@
     </row>
     <row r="33">
       <c r="A33">
-        <v>3227</v>
+        <v>3349</v>
       </c>
       <c r="B33" t="s">
         <v>119</v>
@@ -2492,7 +2492,7 @@
     </row>
     <row r="34">
       <c r="A34">
-        <v>2434</v>
+        <v>2556</v>
       </c>
       <c r="B34" t="s">
         <v>121</v>
@@ -2510,12 +2510,12 @@
         <v>2014</v>
       </c>
       <c r="G34">
-        <v>5.1049202999999999</v>
+        <v>7.0507565000000003</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>3471</v>
+        <v>3593</v>
       </c>
       <c r="B35" t="s">
         <v>123</v>
@@ -2538,7 +2538,7 @@
     </row>
     <row r="36">
       <c r="A36">
-        <v>3532</v>
+        <v>3654</v>
       </c>
       <c r="B36" t="s">
         <v>125</v>
@@ -2561,7 +2561,7 @@
     </row>
     <row r="37">
       <c r="A37">
-        <v>3959</v>
+        <v>4081</v>
       </c>
       <c r="B37" t="s">
         <v>127</v>
@@ -2584,7 +2584,7 @@
     </row>
     <row r="38">
       <c r="A38">
-        <v>4020</v>
+        <v>4142</v>
       </c>
       <c r="B38" t="s">
         <v>129</v>
@@ -2607,7 +2607,7 @@
     </row>
     <row r="39">
       <c r="A39">
-        <v>12804</v>
+        <v>12926</v>
       </c>
       <c r="B39" t="s">
         <v>131</v>
@@ -2625,12 +2625,12 @@
         <v>2014</v>
       </c>
       <c r="G39">
-        <v>11.199038</v>
+        <v>11.199033</v>
       </c>
     </row>
     <row r="40">
       <c r="A40">
-        <v>4264</v>
+        <v>4386</v>
       </c>
       <c r="B40" t="s">
         <v>133</v>
@@ -2648,12 +2648,12 @@
         <v>2014</v>
       </c>
       <c r="G40">
-        <v>6.3440317999999998</v>
+        <v>6.3026087999999998</v>
       </c>
     </row>
     <row r="41">
       <c r="A41">
-        <v>4325</v>
+        <v>4447</v>
       </c>
       <c r="B41" t="s">
         <v>135</v>
@@ -2676,7 +2676,7 @@
     </row>
     <row r="42">
       <c r="A42">
-        <v>4508</v>
+        <v>4630</v>
       </c>
       <c r="B42" t="s">
         <v>137</v>
@@ -2699,7 +2699,7 @@
     </row>
     <row r="43">
       <c r="A43">
-        <v>4630</v>
+        <v>4752</v>
       </c>
       <c r="B43" t="s">
         <v>139</v>
@@ -2722,7 +2722,7 @@
     </row>
     <row r="44">
       <c r="A44">
-        <v>4813</v>
+        <v>4935</v>
       </c>
       <c r="B44" t="s">
         <v>141</v>
@@ -2745,7 +2745,7 @@
     </row>
     <row r="45">
       <c r="A45">
-        <v>4935</v>
+        <v>5057</v>
       </c>
       <c r="B45" t="s">
         <v>143</v>
@@ -2768,7 +2768,7 @@
     </row>
     <row r="46">
       <c r="A46">
-        <v>3288</v>
+        <v>3410</v>
       </c>
       <c r="B46" t="s">
         <v>145</v>
@@ -2791,7 +2791,7 @@
     </row>
     <row r="47">
       <c r="A47">
-        <v>4996</v>
+        <v>5118</v>
       </c>
       <c r="B47" t="s">
         <v>147</v>
@@ -2809,12 +2809,12 @@
         <v>2014</v>
       </c>
       <c r="G47">
-        <v>16.436698</v>
+        <v>16.780532000000001</v>
       </c>
     </row>
     <row r="48">
       <c r="A48">
-        <v>5362</v>
+        <v>5484</v>
       </c>
       <c r="B48" t="s">
         <v>149</v>
@@ -2832,12 +2832,12 @@
         <v>2014</v>
       </c>
       <c r="G48">
-        <v>12.636414</v>
+        <v>12.535942</v>
       </c>
     </row>
     <row r="49">
       <c r="A49">
-        <v>5545</v>
+        <v>5667</v>
       </c>
       <c r="B49" t="s">
         <v>151</v>
@@ -2860,7 +2860,7 @@
     </row>
     <row r="50">
       <c r="A50">
-        <v>6033</v>
+        <v>6155</v>
       </c>
       <c r="B50" t="s">
         <v>153</v>
@@ -2878,12 +2878,12 @@
         <v>2014</v>
       </c>
       <c r="G50">
-        <v>7.3594141999999998</v>
+        <v>7.5328160999999998</v>
       </c>
     </row>
     <row r="51">
       <c r="A51">
-        <v>5850</v>
+        <v>5972</v>
       </c>
       <c r="B51" t="s">
         <v>155</v>
@@ -2906,7 +2906,7 @@
     </row>
     <row r="52">
       <c r="A52">
-        <v>5789</v>
+        <v>5911</v>
       </c>
       <c r="B52" t="s">
         <v>157</v>
@@ -2929,7 +2929,7 @@
     </row>
     <row r="53">
       <c r="A53">
-        <v>6094</v>
+        <v>6216</v>
       </c>
       <c r="B53" t="s">
         <v>159</v>
@@ -2947,12 +2947,12 @@
         <v>2014</v>
       </c>
       <c r="G53">
-        <v>11.079108</v>
+        <v>11.103819</v>
       </c>
     </row>
     <row r="54">
       <c r="A54">
-        <v>6887</v>
+        <v>7009</v>
       </c>
       <c r="B54" t="s">
         <v>161</v>
@@ -2970,12 +2970,12 @@
         <v>2014</v>
       </c>
       <c r="G54">
-        <v>2.5516011000000001</v>
+        <v>2.5673509000000001</v>
       </c>
     </row>
     <row r="55">
       <c r="A55">
-        <v>6582</v>
+        <v>6704</v>
       </c>
       <c r="B55" t="s">
         <v>163</v>
@@ -2998,7 +2998,7 @@
     </row>
     <row r="56">
       <c r="A56">
-        <v>6399</v>
+        <v>6521</v>
       </c>
       <c r="B56" t="s">
         <v>165</v>
@@ -3021,7 +3021,7 @@
     </row>
     <row r="57">
       <c r="A57">
-        <v>6765</v>
+        <v>6887</v>
       </c>
       <c r="B57" t="s">
         <v>167</v>
@@ -3044,7 +3044,7 @@
     </row>
     <row r="58">
       <c r="A58">
-        <v>6826</v>
+        <v>6948</v>
       </c>
       <c r="B58" t="s">
         <v>169</v>
@@ -3062,12 +3062,12 @@
         <v>2014</v>
       </c>
       <c r="G58">
-        <v>9.9221295999999999</v>
+        <v>9.6585786999999996</v>
       </c>
     </row>
     <row r="59">
       <c r="A59">
-        <v>6704</v>
+        <v>6826</v>
       </c>
       <c r="B59" t="s">
         <v>171</v>
@@ -3085,12 +3085,12 @@
         <v>2014</v>
       </c>
       <c r="G59">
-        <v>18.627241000000001</v>
+        <v>18.638289</v>
       </c>
     </row>
     <row r="60">
       <c r="A60">
-        <v>6948</v>
+        <v>7070</v>
       </c>
       <c r="B60" t="s">
         <v>173</v>
@@ -3108,12 +3108,12 @@
         <v>2014</v>
       </c>
       <c r="G60">
-        <v>12.384748999999999</v>
+        <v>12.440219000000001</v>
       </c>
     </row>
     <row r="61">
       <c r="A61">
-        <v>7009</v>
+        <v>7131</v>
       </c>
       <c r="B61" t="s">
         <v>175</v>
@@ -3136,7 +3136,7 @@
     </row>
     <row r="62">
       <c r="A62">
-        <v>7070</v>
+        <v>7192</v>
       </c>
       <c r="B62" t="s">
         <v>177</v>
@@ -3154,12 +3154,12 @@
         <v>2014</v>
       </c>
       <c r="G62">
-        <v>8.7466405999999992</v>
+        <v>8.7475369999999995</v>
       </c>
     </row>
     <row r="63">
       <c r="A63">
-        <v>7192</v>
+        <v>7314</v>
       </c>
       <c r="B63" t="s">
         <v>179</v>
@@ -3177,12 +3177,12 @@
         <v>2014</v>
       </c>
       <c r="G63">
-        <v>11.28834</v>
+        <v>11.396747</v>
       </c>
     </row>
     <row r="64">
       <c r="A64">
-        <v>7131</v>
+        <v>7253</v>
       </c>
       <c r="B64" t="s">
         <v>181</v>
@@ -3205,7 +3205,7 @@
     </row>
     <row r="65">
       <c r="A65">
-        <v>7253</v>
+        <v>7375</v>
       </c>
       <c r="B65" t="s">
         <v>183</v>
@@ -3228,7 +3228,7 @@
     </row>
     <row r="66">
       <c r="A66">
-        <v>7314</v>
+        <v>7436</v>
       </c>
       <c r="B66" t="s">
         <v>185</v>
@@ -3246,12 +3246,12 @@
         <v>2014</v>
       </c>
       <c r="G66">
-        <v>5.9712423000000001</v>
+        <v>6.6357011000000004</v>
       </c>
     </row>
     <row r="67">
       <c r="A67">
-        <v>7619</v>
+        <v>7741</v>
       </c>
       <c r="B67" t="s">
         <v>187</v>
@@ -3274,7 +3274,7 @@
     </row>
     <row r="68">
       <c r="A68">
-        <v>15854</v>
+        <v>15976</v>
       </c>
       <c r="B68" t="s">
         <v>189</v>
@@ -3292,12 +3292,12 @@
         <v>2014</v>
       </c>
       <c r="G68">
-        <v>7.4165386</v>
+        <v>7.0936278000000001</v>
       </c>
     </row>
     <row r="69">
       <c r="A69">
-        <v>7680</v>
+        <v>7802</v>
       </c>
       <c r="B69" t="s">
         <v>191</v>
@@ -3320,7 +3320,7 @@
     </row>
     <row r="70">
       <c r="A70">
-        <v>7375</v>
+        <v>7497</v>
       </c>
       <c r="B70" t="s">
         <v>193</v>
@@ -3343,7 +3343,7 @@
     </row>
     <row r="71">
       <c r="A71">
-        <v>8778</v>
+        <v>8900</v>
       </c>
       <c r="B71" t="s">
         <v>195</v>
@@ -3361,12 +3361,12 @@
         <v>2014</v>
       </c>
       <c r="G71">
-        <v>10.935012</v>
+        <v>10.940521</v>
       </c>
     </row>
     <row r="72">
       <c r="A72">
-        <v>7863</v>
+        <v>7985</v>
       </c>
       <c r="B72" t="s">
         <v>197</v>
@@ -3384,12 +3384,12 @@
         <v>2014</v>
       </c>
       <c r="G72">
-        <v>12.557467000000001</v>
+        <v>12.557187000000001</v>
       </c>
     </row>
     <row r="73">
       <c r="A73">
-        <v>7985</v>
+        <v>8107</v>
       </c>
       <c r="B73" t="s">
         <v>199</v>
@@ -3412,7 +3412,7 @@
     </row>
     <row r="74">
       <c r="A74">
-        <v>8656</v>
+        <v>8778</v>
       </c>
       <c r="B74" t="s">
         <v>201</v>
@@ -3435,7 +3435,7 @@
     </row>
     <row r="75">
       <c r="A75">
-        <v>8717</v>
+        <v>8839</v>
       </c>
       <c r="B75" t="s">
         <v>203</v>
@@ -3453,12 +3453,12 @@
         <v>2014</v>
       </c>
       <c r="G75">
-        <v>14.764028</v>
+        <v>15.346836</v>
       </c>
     </row>
     <row r="76">
       <c r="A76">
-        <v>10242</v>
+        <v>10364</v>
       </c>
       <c r="B76" t="s">
         <v>205</v>
@@ -3481,7 +3481,7 @@
     </row>
     <row r="77">
       <c r="A77">
-        <v>9632</v>
+        <v>9754</v>
       </c>
       <c r="B77" t="s">
         <v>207</v>
@@ -3504,7 +3504,7 @@
     </row>
     <row r="78">
       <c r="A78">
-        <v>10120</v>
+        <v>10242</v>
       </c>
       <c r="B78" t="s">
         <v>209</v>
@@ -3527,7 +3527,7 @@
     </row>
     <row r="79">
       <c r="A79">
-        <v>9327</v>
+        <v>9449</v>
       </c>
       <c r="B79" t="s">
         <v>211</v>
@@ -3550,7 +3550,7 @@
     </row>
     <row r="80">
       <c r="A80">
-        <v>9083</v>
+        <v>9205</v>
       </c>
       <c r="B80" t="s">
         <v>213</v>
@@ -3573,7 +3573,7 @@
     </row>
     <row r="81">
       <c r="A81">
-        <v>9876</v>
+        <v>9998</v>
       </c>
       <c r="B81" t="s">
         <v>215</v>
@@ -3596,7 +3596,7 @@
     </row>
     <row r="82">
       <c r="A82">
-        <v>9815</v>
+        <v>9937</v>
       </c>
       <c r="B82" t="s">
         <v>217</v>
@@ -3619,7 +3619,7 @@
     </row>
     <row r="83">
       <c r="A83">
-        <v>8961</v>
+        <v>9083</v>
       </c>
       <c r="B83" t="s">
         <v>219</v>
@@ -3642,7 +3642,7 @@
     </row>
     <row r="84">
       <c r="A84">
-        <v>9998</v>
+        <v>10120</v>
       </c>
       <c r="B84" t="s">
         <v>221</v>
@@ -3665,7 +3665,7 @@
     </row>
     <row r="85">
       <c r="A85">
-        <v>9693</v>
+        <v>9815</v>
       </c>
       <c r="B85" t="s">
         <v>223</v>
@@ -3683,12 +3683,12 @@
         <v>2014</v>
       </c>
       <c r="G85">
-        <v>11.495900000000001</v>
+        <v>10.857332</v>
       </c>
     </row>
     <row r="86">
       <c r="A86">
-        <v>10364</v>
+        <v>10486</v>
       </c>
       <c r="B86" t="s">
         <v>225</v>
@@ -3706,12 +3706,12 @@
         <v>2014</v>
       </c>
       <c r="G86">
-        <v>13.094276000000001</v>
+        <v>13.177922000000001</v>
       </c>
     </row>
     <row r="87">
       <c r="A87">
-        <v>10791</v>
+        <v>10913</v>
       </c>
       <c r="B87" t="s">
         <v>227</v>
@@ -3729,12 +3729,12 @@
         <v>2014</v>
       </c>
       <c r="G87">
-        <v>5.9694846000000004</v>
+        <v>6.7837907</v>
       </c>
     </row>
     <row r="88">
       <c r="A88">
-        <v>10669</v>
+        <v>10791</v>
       </c>
       <c r="B88" t="s">
         <v>229</v>
@@ -3757,7 +3757,7 @@
     </row>
     <row r="89">
       <c r="A89">
-        <v>10913</v>
+        <v>11035</v>
       </c>
       <c r="B89" t="s">
         <v>231</v>
@@ -3775,12 +3775,12 @@
         <v>2014</v>
       </c>
       <c r="G89">
-        <v>8.1749615999999996</v>
+        <v>8.1908931000000003</v>
       </c>
     </row>
     <row r="90">
       <c r="A90">
-        <v>10608</v>
+        <v>10730</v>
       </c>
       <c r="B90" t="s">
         <v>233</v>
@@ -3803,7 +3803,7 @@
     </row>
     <row r="91">
       <c r="A91">
-        <v>10486</v>
+        <v>10608</v>
       </c>
       <c r="B91" t="s">
         <v>235</v>
@@ -3826,7 +3826,7 @@
     </row>
     <row r="92">
       <c r="A92">
-        <v>10547</v>
+        <v>10669</v>
       </c>
       <c r="B92" t="s">
         <v>237</v>
@@ -3849,7 +3849,7 @@
     </row>
     <row r="93">
       <c r="A93">
-        <v>9510</v>
+        <v>9632</v>
       </c>
       <c r="B93" t="s">
         <v>239</v>
@@ -3872,7 +3872,7 @@
     </row>
     <row r="94">
       <c r="A94">
-        <v>10730</v>
+        <v>10852</v>
       </c>
       <c r="B94" t="s">
         <v>241</v>
@@ -3895,7 +3895,7 @@
     </row>
     <row r="95">
       <c r="A95">
-        <v>11035</v>
+        <v>11157</v>
       </c>
       <c r="B95" t="s">
         <v>243</v>
@@ -3913,12 +3913,12 @@
         <v>2014</v>
       </c>
       <c r="G95">
-        <v>6.3941564</v>
+        <v>6.3941622999999996</v>
       </c>
     </row>
     <row r="96">
       <c r="A96">
-        <v>11157</v>
+        <v>11279</v>
       </c>
       <c r="B96" t="s">
         <v>245</v>
@@ -3941,7 +3941,7 @@
     </row>
     <row r="97">
       <c r="A97">
-        <v>11218</v>
+        <v>11340</v>
       </c>
       <c r="B97" t="s">
         <v>247</v>
@@ -3959,12 +3959,12 @@
         <v>2014</v>
       </c>
       <c r="G97">
-        <v>21.203863999999999</v>
+        <v>21.203849000000002</v>
       </c>
     </row>
     <row r="98">
       <c r="A98">
-        <v>11828</v>
+        <v>11950</v>
       </c>
       <c r="B98" t="s">
         <v>249</v>
@@ -3982,12 +3982,12 @@
         <v>2014</v>
       </c>
       <c r="G98">
-        <v>14.590674</v>
+        <v>14.627406000000001</v>
       </c>
     </row>
     <row r="99">
       <c r="A99">
-        <v>11279</v>
+        <v>11401</v>
       </c>
       <c r="B99" t="s">
         <v>251</v>
@@ -4010,7 +4010,7 @@
     </row>
     <row r="100">
       <c r="A100">
-        <v>11340</v>
+        <v>11462</v>
       </c>
       <c r="B100" t="s">
         <v>253</v>
@@ -4033,7 +4033,7 @@
     </row>
     <row r="101">
       <c r="A101">
-        <v>11523</v>
+        <v>11645</v>
       </c>
       <c r="B101" t="s">
         <v>255</v>
@@ -4056,7 +4056,7 @@
     </row>
     <row r="102">
       <c r="A102">
-        <v>11767</v>
+        <v>11889</v>
       </c>
       <c r="B102" t="s">
         <v>257</v>
@@ -4079,7 +4079,7 @@
     </row>
     <row r="103">
       <c r="A103">
-        <v>12133</v>
+        <v>12255</v>
       </c>
       <c r="B103" t="s">
         <v>259</v>
@@ -4102,7 +4102,7 @@
     </row>
     <row r="104">
       <c r="A104">
-        <v>12194</v>
+        <v>12316</v>
       </c>
       <c r="B104" t="s">
         <v>261</v>
@@ -4125,7 +4125,7 @@
     </row>
     <row r="105">
       <c r="A105">
-        <v>12255</v>
+        <v>12377</v>
       </c>
       <c r="B105" t="s">
         <v>263</v>
@@ -4148,7 +4148,7 @@
     </row>
     <row r="106">
       <c r="A106">
-        <v>12438</v>
+        <v>12560</v>
       </c>
       <c r="B106" t="s">
         <v>265</v>
@@ -4171,7 +4171,7 @@
     </row>
     <row r="107">
       <c r="A107">
-        <v>12560</v>
+        <v>12682</v>
       </c>
       <c r="B107" t="s">
         <v>267</v>
@@ -4194,7 +4194,7 @@
     </row>
     <row r="108">
       <c r="A108">
-        <v>12987</v>
+        <v>13109</v>
       </c>
       <c r="B108" t="s">
         <v>269</v>
@@ -4217,7 +4217,7 @@
     </row>
     <row r="109">
       <c r="A109">
-        <v>12621</v>
+        <v>12743</v>
       </c>
       <c r="B109" t="s">
         <v>271</v>
@@ -4240,7 +4240,7 @@
     </row>
     <row r="110">
       <c r="A110">
-        <v>13414</v>
+        <v>13536</v>
       </c>
       <c r="B110" t="s">
         <v>273</v>
@@ -4258,12 +4258,12 @@
         <v>2014</v>
       </c>
       <c r="G110">
-        <v>9.8521926999999998</v>
+        <v>9.8293125999999997</v>
       </c>
     </row>
     <row r="111">
       <c r="A111">
-        <v>13475</v>
+        <v>13597</v>
       </c>
       <c r="B111" t="s">
         <v>275</v>
@@ -4286,7 +4286,7 @@
     </row>
     <row r="112">
       <c r="A112">
-        <v>15976</v>
+        <v>16098</v>
       </c>
       <c r="B112" t="s">
         <v>277</v>
@@ -4304,12 +4304,12 @@
         <v>2014</v>
       </c>
       <c r="G112">
-        <v>4.645187</v>
+        <v>5.0462153000000001</v>
       </c>
     </row>
     <row r="113">
       <c r="A113">
-        <v>13109</v>
+        <v>13231</v>
       </c>
       <c r="B113" t="s">
         <v>279</v>
@@ -4332,7 +4332,7 @@
     </row>
     <row r="114">
       <c r="A114">
-        <v>4203</v>
+        <v>4325</v>
       </c>
       <c r="B114" t="s">
         <v>281</v>
@@ -4355,7 +4355,7 @@
     </row>
     <row r="115">
       <c r="A115">
-        <v>8351</v>
+        <v>8473</v>
       </c>
       <c r="B115" t="s">
         <v>283</v>
@@ -4378,7 +4378,7 @@
     </row>
     <row r="116">
       <c r="A116">
-        <v>12499</v>
+        <v>12621</v>
       </c>
       <c r="B116" t="s">
         <v>285</v>
@@ -4396,12 +4396,12 @@
         <v>2014</v>
       </c>
       <c r="G116">
-        <v>11.997851000000001</v>
+        <v>11.218964</v>
       </c>
     </row>
     <row r="117">
       <c r="A117">
-        <v>13353</v>
+        <v>13475</v>
       </c>
       <c r="B117" t="s">
         <v>287</v>
@@ -4424,7 +4424,7 @@
     </row>
     <row r="118">
       <c r="A118">
-        <v>13536</v>
+        <v>13658</v>
       </c>
       <c r="B118" t="s">
         <v>289</v>
@@ -4447,7 +4447,7 @@
     </row>
     <row r="119">
       <c r="A119">
-        <v>2190</v>
+        <v>2312</v>
       </c>
       <c r="B119" t="s">
         <v>291</v>
@@ -4465,12 +4465,12 @@
         <v>2014</v>
       </c>
       <c r="G119">
-        <v>20.229882</v>
+        <v>20.949128999999999</v>
       </c>
     </row>
     <row r="120">
       <c r="A120">
-        <v>14207</v>
+        <v>14329</v>
       </c>
       <c r="B120" t="s">
         <v>293</v>
@@ -4493,7 +4493,7 @@
     </row>
     <row r="121">
       <c r="A121">
-        <v>14939</v>
+        <v>15061</v>
       </c>
       <c r="B121" t="s">
         <v>295</v>
@@ -4516,7 +4516,7 @@
     </row>
     <row r="122">
       <c r="A122">
-        <v>14146</v>
+        <v>14268</v>
       </c>
       <c r="B122" t="s">
         <v>297</v>
@@ -4534,12 +4534,12 @@
         <v>2014</v>
       </c>
       <c r="G122">
-        <v>7.8619592000000003</v>
+        <v>7.861961</v>
       </c>
     </row>
     <row r="123">
       <c r="A123">
-        <v>14085</v>
+        <v>14207</v>
       </c>
       <c r="B123" t="s">
         <v>299</v>
@@ -4562,7 +4562,7 @@
     </row>
     <row r="124">
       <c r="A124">
-        <v>14695</v>
+        <v>14817</v>
       </c>
       <c r="B124" t="s">
         <v>301</v>
@@ -4585,7 +4585,7 @@
     </row>
     <row r="125">
       <c r="A125">
-        <v>14756</v>
+        <v>14878</v>
       </c>
       <c r="B125" t="s">
         <v>303</v>
@@ -4603,12 +4603,12 @@
         <v>2014</v>
       </c>
       <c r="G125">
-        <v>10.990166</v>
+        <v>11.599064</v>
       </c>
     </row>
     <row r="126">
       <c r="A126">
-        <v>14817</v>
+        <v>14939</v>
       </c>
       <c r="B126" t="s">
         <v>305</v>
@@ -4631,7 +4631,7 @@
     </row>
     <row r="127">
       <c r="A127">
-        <v>14268</v>
+        <v>14390</v>
       </c>
       <c r="B127" t="s">
         <v>307</v>
@@ -4654,7 +4654,7 @@
     </row>
     <row r="128">
       <c r="A128">
-        <v>15061</v>
+        <v>15183</v>
       </c>
       <c r="B128" t="s">
         <v>309</v>
@@ -4677,7 +4677,7 @@
     </row>
     <row r="129">
       <c r="A129">
-        <v>421</v>
+        <v>543</v>
       </c>
       <c r="B129" t="s">
         <v>311</v>
@@ -4700,7 +4700,7 @@
     </row>
     <row r="130">
       <c r="A130">
-        <v>4874</v>
+        <v>4996</v>
       </c>
       <c r="B130" t="s">
         <v>313</v>
@@ -4718,12 +4718,12 @@
         <v>2014</v>
       </c>
       <c r="G130">
-        <v>14.858233999999999</v>
+        <v>14.971532</v>
       </c>
     </row>
     <row r="131">
       <c r="A131">
-        <v>15244</v>
+        <v>15366</v>
       </c>
       <c r="B131" t="s">
         <v>315</v>
@@ -4746,7 +4746,7 @@
     </row>
     <row r="132">
       <c r="A132">
-        <v>15183</v>
+        <v>15305</v>
       </c>
       <c r="B132" t="s">
         <v>317</v>
@@ -4784,11 +4784,11 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="24.285156" customWidth="1"/>
-    <col min="2" max="2" width="12" customWidth="1"/>
-    <col min="3" max="3" width="12.285156" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" customWidth="1"/>
-    <col min="5" max="5" width="14.140625" customWidth="1"/>
-    <col min="6" max="6" width="9.7109375" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" customWidth="1"/>
+    <col min="3" max="3" width="12" customWidth="1"/>
+    <col min="4" max="4" width="13.285156" customWidth="1"/>
+    <col min="5" max="5" width="13.855469" customWidth="1"/>
+    <col min="6" max="6" width="9.425781" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4822,13 +4822,13 @@
         <v>27.801100000000002</v>
       </c>
       <c r="D2">
-        <v>10.7834</v>
+        <v>10.7492</v>
       </c>
       <c r="E2">
-        <v>8.7878000000000007</v>
+        <v>8.7879000000000005</v>
       </c>
       <c r="F2">
-        <v>5.6227</v>
+        <v>5.6196999999999999</v>
       </c>
     </row>
     <row r="3">
@@ -4836,19 +4836,19 @@
         <v>12</v>
       </c>
       <c r="B3">
-        <v>2.5516000000000001</v>
+        <v>2.5674000000000001</v>
       </c>
       <c r="C3">
-        <v>20.229900000000001</v>
+        <v>20.949100000000001</v>
       </c>
       <c r="D3">
-        <v>10.440099999999999</v>
+        <v>10.464</v>
       </c>
       <c r="E3">
         <v>10.444699999999999</v>
       </c>
       <c r="F3">
-        <v>3.8546</v>
+        <v>3.9178999999999999</v>
       </c>
     </row>
     <row r="4">
@@ -4859,16 +4859,16 @@
         <v>2.0061</v>
       </c>
       <c r="C4">
-        <v>21.203900000000001</v>
+        <v>21.203800000000001</v>
       </c>
       <c r="D4">
-        <v>11.4359</v>
+        <v>11.465199999999999</v>
       </c>
       <c r="E4">
         <v>11.203900000000001</v>
       </c>
       <c r="F4">
-        <v>4.7824999999999998</v>
+        <v>4.7942</v>
       </c>
     </row>
     <row r="5">
@@ -4882,13 +4882,13 @@
         <v>19.278199999999998</v>
       </c>
       <c r="D5">
-        <v>9.6477000000000004</v>
+        <v>9.6712000000000007</v>
       </c>
       <c r="E5">
-        <v>9.7949999999999999</v>
+        <v>9.6585999999999999</v>
       </c>
       <c r="F5">
-        <v>3.6913</v>
+        <v>3.7101000000000002</v>
       </c>
     </row>
     <row r="6">
@@ -4916,19 +4916,19 @@
         <v>35</v>
       </c>
       <c r="B7">
-        <v>5.9695</v>
+        <v>6.7838000000000003</v>
       </c>
       <c r="C7">
         <v>21.836300000000001</v>
       </c>
       <c r="D7">
-        <v>11.985799999999999</v>
+        <v>12.1487</v>
       </c>
       <c r="E7">
         <v>9.2096</v>
       </c>
       <c r="F7">
-        <v>6.3723000000000001</v>
+        <v>6.1878000000000002</v>
       </c>
     </row>
     <row r="8">
@@ -4942,13 +4942,13 @@
         <v>22.542400000000001</v>
       </c>
       <c r="D8">
-        <v>8.9383999999999997</v>
+        <v>9.0591000000000008</v>
       </c>
       <c r="E8">
         <v>7.4138999999999999</v>
       </c>
       <c r="F8">
-        <v>5.4400000000000004</v>
+        <v>5.3575999999999997</v>
       </c>
     </row>
   </sheetData>
